--- a/database/industries/darou/desobhan/product/monthly_seprated.xlsx
+++ b/database/industries/darou/desobhan/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5138BB-95D0-45D2-B297-C712B118D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C75B361-B3AD-4026-A8C2-B7388A623D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1525,95 +1525,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>11800</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>859</v>
       </c>
       <c r="AA11" s="11">
-        <v>11800</v>
+        <v>7792</v>
       </c>
       <c r="AB11" s="11">
-        <v>859</v>
+        <v>11158</v>
       </c>
       <c r="AC11" s="11">
-        <v>7792</v>
+        <v>3107</v>
       </c>
       <c r="AD11" s="11">
-        <v>11158</v>
+        <v>11045</v>
       </c>
       <c r="AE11" s="11">
-        <v>3107</v>
+        <v>3258</v>
       </c>
       <c r="AF11" s="11">
-        <v>11045</v>
+        <v>9632</v>
       </c>
       <c r="AG11" s="11">
-        <v>3258</v>
+        <v>11333</v>
       </c>
       <c r="AH11" s="11">
-        <v>9632</v>
+        <v>1331</v>
       </c>
       <c r="AI11" s="11">
-        <v>11333</v>
+        <v>10505</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1331</v>
+        <v>12587</v>
       </c>
       <c r="AK11" s="11">
-        <v>10505</v>
+        <v>3124</v>
       </c>
       <c r="AL11" s="11">
-        <v>12587</v>
+        <v>15087</v>
       </c>
       <c r="AM11" s="11">
-        <v>3124</v>
+        <v>19050</v>
       </c>
       <c r="AN11" s="11">
-        <v>15087</v>
+        <v>16463</v>
       </c>
       <c r="AO11" s="11">
-        <v>19050</v>
+        <v>16389</v>
       </c>
       <c r="AP11" s="11">
-        <v>16463</v>
+        <v>6933</v>
       </c>
       <c r="AQ11" s="11">
-        <v>16389</v>
+        <v>20758</v>
       </c>
       <c r="AR11" s="11">
-        <v>6933</v>
+        <v>12736</v>
       </c>
       <c r="AS11" s="11">
-        <v>20758</v>
+        <v>5007</v>
       </c>
       <c r="AT11" s="11">
-        <v>12736</v>
+        <v>9924</v>
       </c>
       <c r="AU11" s="11">
-        <v>5007</v>
+        <v>14129</v>
       </c>
       <c r="AV11" s="11">
-        <v>11391</v>
+        <v>14506</v>
       </c>
       <c r="AW11" s="11">
-        <v>14129</v>
+        <v>19263</v>
       </c>
       <c r="AX11" s="11">
-        <v>14506</v>
+        <v>10507</v>
       </c>
       <c r="AY11" s="11">
-        <v>19263</v>
+        <v>6731</v>
       </c>
       <c r="AZ11" s="11">
-        <v>10507</v>
+        <v>13171</v>
       </c>
       <c r="BA11" s="11">
-        <v>6731</v>
+        <v>2030</v>
       </c>
       <c r="BB11" s="11">
-        <v>13171</v>
+        <v>14335</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1684,80 +1684,80 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>252168</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>284276</v>
       </c>
       <c r="AA12" s="13">
-        <v>252168</v>
+        <v>328679</v>
       </c>
       <c r="AB12" s="13">
-        <v>284276</v>
+        <v>220255</v>
       </c>
       <c r="AC12" s="13">
-        <v>328679</v>
+        <v>318170</v>
       </c>
       <c r="AD12" s="13">
-        <v>220255</v>
+        <v>340943</v>
       </c>
       <c r="AE12" s="13">
-        <v>318170</v>
+        <v>325353</v>
       </c>
       <c r="AF12" s="13">
-        <v>340943</v>
+        <v>275345</v>
       </c>
       <c r="AG12" s="13">
-        <v>325353</v>
+        <v>318395</v>
       </c>
       <c r="AH12" s="13">
-        <v>275345</v>
+        <v>236035</v>
       </c>
       <c r="AI12" s="13">
-        <v>318395</v>
+        <v>335898</v>
       </c>
       <c r="AJ12" s="13">
-        <v>236035</v>
+        <v>257870</v>
       </c>
       <c r="AK12" s="13">
-        <v>335898</v>
+        <v>283228</v>
       </c>
       <c r="AL12" s="13">
-        <v>257870</v>
+        <v>202727</v>
       </c>
       <c r="AM12" s="13">
-        <v>283228</v>
+        <v>333981</v>
       </c>
       <c r="AN12" s="13">
-        <v>202727</v>
+        <v>344551</v>
       </c>
       <c r="AO12" s="13">
-        <v>333981</v>
+        <v>284301</v>
       </c>
       <c r="AP12" s="13">
-        <v>344551</v>
+        <v>271738</v>
       </c>
       <c r="AQ12" s="13">
-        <v>284301</v>
+        <v>292959</v>
       </c>
       <c r="AR12" s="13">
-        <v>271738</v>
+        <v>296910</v>
       </c>
       <c r="AS12" s="13">
-        <v>292959</v>
+        <v>258716</v>
       </c>
       <c r="AT12" s="13">
-        <v>296910</v>
+        <v>197954</v>
       </c>
       <c r="AU12" s="13">
-        <v>258716</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>223022</v>
-      </c>
-      <c r="AW12" s="13">
         <v>339733</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>58</v>
@@ -1843,95 +1843,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>119</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>59</v>
       </c>
       <c r="AA13" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB13" s="11">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>24</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>80</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>102</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>144</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>157</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>132</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>104</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>26</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>146</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>118</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="11">
         <v>59</v>
       </c>
-      <c r="AC13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>69</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>49</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>24</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>98</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>20</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>48</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>87</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>80</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>102</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>144</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>157</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>132</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>104</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>26</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>146</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>118</v>
-      </c>
       <c r="AY13" s="11">
         <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB13" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2002,95 +2002,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>995</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>800</v>
       </c>
       <c r="AA14" s="13">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="AB14" s="13">
-        <v>800</v>
+        <v>634</v>
       </c>
       <c r="AC14" s="13">
-        <v>955</v>
+        <v>709</v>
       </c>
       <c r="AD14" s="13">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="AE14" s="13">
-        <v>709</v>
+        <v>821</v>
       </c>
       <c r="AF14" s="13">
-        <v>975</v>
+        <v>851</v>
       </c>
       <c r="AG14" s="13">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="AH14" s="13">
-        <v>851</v>
+        <v>538</v>
       </c>
       <c r="AI14" s="13">
-        <v>501</v>
+        <v>885</v>
       </c>
       <c r="AJ14" s="13">
-        <v>538</v>
+        <v>928</v>
       </c>
       <c r="AK14" s="13">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="AL14" s="13">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AM14" s="13">
-        <v>907</v>
+        <v>562</v>
       </c>
       <c r="AN14" s="13">
-        <v>682</v>
+        <v>923</v>
       </c>
       <c r="AO14" s="13">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="AP14" s="13">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="AQ14" s="13">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="AR14" s="13">
-        <v>850</v>
+        <v>1049</v>
       </c>
       <c r="AS14" s="13">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AT14" s="13">
-        <v>1049</v>
+        <v>601</v>
       </c>
       <c r="AU14" s="13">
-        <v>700</v>
+        <v>942</v>
       </c>
       <c r="AV14" s="13">
-        <v>23383</v>
+        <v>1033</v>
       </c>
       <c r="AW14" s="13">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="AX14" s="13">
-        <v>1033</v>
+        <v>822</v>
       </c>
       <c r="AY14" s="13">
-        <v>1032</v>
+        <v>98</v>
       </c>
       <c r="AZ14" s="13">
-        <v>642</v>
+        <v>892</v>
       </c>
       <c r="BA14" s="13">
-        <v>278</v>
+        <v>520</v>
       </c>
       <c r="BB14" s="13">
-        <v>892</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2230,26 +2230,26 @@
       <c r="AU15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>58</v>
+      <c r="AV15" s="11">
+        <v>340407</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>310411</v>
       </c>
       <c r="AX15" s="11">
-        <v>340407</v>
+        <v>271838</v>
       </c>
       <c r="AY15" s="11">
-        <v>310411</v>
+        <v>234533</v>
       </c>
       <c r="AZ15" s="11">
-        <v>284342</v>
+        <v>403536</v>
       </c>
       <c r="BA15" s="11">
-        <v>234533</v>
+        <v>401364</v>
       </c>
       <c r="BB15" s="11">
-        <v>403536</v>
+        <v>353577</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2319,94 +2319,94 @@
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <v>0</v>
+        <v>265082</v>
       </c>
       <c r="Z16" s="15">
-        <v>0</v>
+        <v>285994</v>
       </c>
       <c r="AA16" s="15">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="AB16" s="15">
-        <v>285994</v>
+        <v>232116</v>
       </c>
       <c r="AC16" s="15">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AD16" s="15">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AE16" s="15">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AF16" s="15">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AG16" s="15">
-        <v>329456</v>
+        <v>330249</v>
       </c>
       <c r="AH16" s="15">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AI16" s="15">
-        <v>330249</v>
+        <v>347375</v>
       </c>
       <c r="AJ16" s="15">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AK16" s="15">
-        <v>347375</v>
+        <v>287339</v>
       </c>
       <c r="AL16" s="15">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AM16" s="15">
-        <v>287339</v>
+        <v>353737</v>
       </c>
       <c r="AN16" s="15">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AO16" s="15">
-        <v>353737</v>
+        <v>301567</v>
       </c>
       <c r="AP16" s="15">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AQ16" s="15">
-        <v>301567</v>
+        <v>314441</v>
       </c>
       <c r="AR16" s="15">
-        <v>279611</v>
+        <v>310799</v>
       </c>
       <c r="AS16" s="15">
-        <v>314441</v>
+        <v>264539</v>
       </c>
       <c r="AT16" s="15">
-        <v>310799</v>
+        <v>208505</v>
       </c>
       <c r="AU16" s="15">
-        <v>264539</v>
+        <v>354950</v>
       </c>
       <c r="AV16" s="15">
-        <v>257822</v>
+        <v>356064</v>
       </c>
       <c r="AW16" s="15">
-        <v>354950</v>
+        <v>330706</v>
       </c>
       <c r="AX16" s="15">
-        <v>356064</v>
+        <v>283226</v>
       </c>
       <c r="AY16" s="15">
-        <v>330706</v>
+        <v>241362</v>
       </c>
       <c r="AZ16" s="15">
-        <v>295589</v>
+        <v>417644</v>
       </c>
       <c r="BA16" s="15">
-        <v>241542</v>
+        <v>403927</v>
       </c>
       <c r="BB16" s="15">
-        <v>417644</v>
+        <v>369254</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2558,20 +2558,20 @@
       <c r="AF18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH18" s="11" t="s">
-        <v>58</v>
+      <c r="AG18" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>0</v>
       </c>
       <c r="AI18" s="11">
-        <v>1200</v>
-      </c>
-      <c r="AJ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>58</v>
@@ -2582,11 +2582,11 @@
       <c r="AN18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="11" t="s">
-        <v>58</v>
+      <c r="AO18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>0</v>
       </c>
       <c r="AQ18" s="11">
         <v>0</v>
@@ -2594,11 +2594,11 @@
       <c r="AR18" s="11">
         <v>0</v>
       </c>
-      <c r="AS18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="11">
-        <v>0</v>
+      <c r="AS18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="11" t="s">
         <v>58</v>
@@ -2696,14 +2696,14 @@
       <c r="Y19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA19" s="13" t="s">
-        <v>58</v>
+      <c r="Z19" s="13">
+        <v>158113</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
       </c>
       <c r="AB19" s="13">
-        <v>158113</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="13">
         <v>0</v>
@@ -2718,55 +2718,55 @@
         <v>0</v>
       </c>
       <c r="AG19" s="13">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AH19" s="13">
         <v>0</v>
       </c>
       <c r="AI19" s="13">
-        <v>3180</v>
-      </c>
-      <c r="AJ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="13">
         <v>6000</v>
       </c>
+      <c r="AJ19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM19" s="13" t="s">
-        <v>58</v>
+      <c r="AM19" s="13">
+        <v>1000</v>
       </c>
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AR19" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AS19" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AT19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="13">
         <v>1000</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="13">
-        <v>10000</v>
-      </c>
-      <c r="AT19" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AU19" s="13">
-        <v>6000</v>
-      </c>
       <c r="AV19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW19" s="13">
-        <v>1000</v>
+      <c r="AW19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX19" s="13" t="s">
         <v>58</v>
@@ -2879,14 +2879,14 @@
       <c r="AG20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>58</v>
+      <c r="AH20" s="11">
+        <v>0</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
+      <c r="AJ20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="11" t="s">
         <v>58</v>
@@ -2903,17 +2903,17 @@
       <c r="AO20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="11">
-        <v>0</v>
+      <c r="AP20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="11" t="s">
         <v>58</v>
@@ -3014,14 +3014,14 @@
       <c r="Y21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>58</v>
+      <c r="Z21" s="13">
+        <v>87</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>0</v>
       </c>
       <c r="AB21" s="13">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="13">
         <v>0</v>
@@ -3042,14 +3042,14 @@
         <v>0</v>
       </c>
       <c r="AI21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="13">
         <v>210</v>
       </c>
+      <c r="AJ21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK21" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL21" s="13" t="s">
         <v>58</v>
       </c>
@@ -3059,20 +3059,20 @@
       <c r="AN21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AO21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="13">
+        <v>0</v>
       </c>
       <c r="AQ21" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR21" s="13">
         <v>0</v>
       </c>
       <c r="AS21" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="13">
         <v>0</v>
@@ -3080,26 +3080,26 @@
       <c r="AU21" s="13">
         <v>0</v>
       </c>
-      <c r="AV21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX21" s="13" t="s">
-        <v>58</v>
+      <c r="AV21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="13">
+        <v>0</v>
       </c>
       <c r="AY21" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ21" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BA21" s="13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="BB21" s="13">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3239,26 +3239,26 @@
       <c r="AU22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>58</v>
+      <c r="AV22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>0</v>
       </c>
       <c r="AX22" s="11">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AY22" s="11">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AZ22" s="11">
-        <v>14999</v>
+        <v>350</v>
       </c>
       <c r="BA22" s="11">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="11">
-        <v>350</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="Z23" s="15">
-        <v>0</v>
+        <v>158200</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
       </c>
       <c r="AB23" s="15">
-        <v>158200</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="15">
         <v>0</v>
@@ -3352,70 +3352,70 @@
         <v>0</v>
       </c>
       <c r="AG23" s="15">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="AH23" s="15">
         <v>0</v>
       </c>
       <c r="AI23" s="15">
-        <v>4380</v>
+        <v>6210</v>
       </c>
       <c r="AJ23" s="15">
         <v>0</v>
       </c>
       <c r="AK23" s="15">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="15">
         <v>0</v>
       </c>
       <c r="AM23" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" s="15">
         <v>0</v>
       </c>
       <c r="AO23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="15">
+        <v>10050</v>
+      </c>
+      <c r="AR23" s="15">
+        <v>25000</v>
+      </c>
+      <c r="AS23" s="15">
+        <v>6000</v>
+      </c>
+      <c r="AT23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="15">
         <v>1000</v>
       </c>
-      <c r="AP23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="15">
-        <v>10050</v>
-      </c>
-      <c r="AT23" s="15">
-        <v>25000</v>
-      </c>
-      <c r="AU23" s="15">
-        <v>6000</v>
-      </c>
       <c r="AV23" s="15">
         <v>0</v>
       </c>
       <c r="AW23" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="15">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AY23" s="15">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="AZ23" s="15">
-        <v>14999</v>
+        <v>650</v>
       </c>
       <c r="BA23" s="15">
-        <v>11180</v>
+        <v>300</v>
       </c>
       <c r="BB23" s="15">
-        <v>650</v>
+        <v>15025</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3570,14 +3570,14 @@
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11" t="s">
-        <v>58</v>
+      <c r="AH25" s="11">
+        <v>0</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ25" s="11">
-        <v>0</v>
+      <c r="AJ25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK25" s="11" t="s">
         <v>58</v>
@@ -3700,11 +3700,11 @@
       <c r="X26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>58</v>
+      <c r="Y26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="15">
+        <v>0</v>
       </c>
       <c r="AA26" s="15">
         <v>0</v>
@@ -3858,94 +3858,94 @@
         <v>0</v>
       </c>
       <c r="Y27" s="17">
-        <v>0</v>
+        <v>265082</v>
       </c>
       <c r="Z27" s="17">
-        <v>0</v>
+        <v>444194</v>
       </c>
       <c r="AA27" s="17">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="AB27" s="17">
-        <v>444194</v>
+        <v>232116</v>
       </c>
       <c r="AC27" s="17">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AD27" s="17">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AE27" s="17">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AF27" s="17">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AG27" s="17">
-        <v>329456</v>
+        <v>334629</v>
       </c>
       <c r="AH27" s="17">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AI27" s="17">
-        <v>334629</v>
+        <v>353585</v>
       </c>
       <c r="AJ27" s="17">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AK27" s="17">
-        <v>353585</v>
+        <v>287339</v>
       </c>
       <c r="AL27" s="17">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AM27" s="17">
-        <v>287339</v>
+        <v>354737</v>
       </c>
       <c r="AN27" s="17">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AO27" s="17">
-        <v>354737</v>
+        <v>301567</v>
       </c>
       <c r="AP27" s="17">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AQ27" s="17">
-        <v>301567</v>
+        <v>324491</v>
       </c>
       <c r="AR27" s="17">
-        <v>279611</v>
+        <v>335799</v>
       </c>
       <c r="AS27" s="17">
-        <v>324491</v>
+        <v>270539</v>
       </c>
       <c r="AT27" s="17">
-        <v>335799</v>
+        <v>208505</v>
       </c>
       <c r="AU27" s="17">
-        <v>270539</v>
+        <v>355950</v>
       </c>
       <c r="AV27" s="17">
-        <v>257822</v>
+        <v>356064</v>
       </c>
       <c r="AW27" s="17">
-        <v>355950</v>
+        <v>330706</v>
       </c>
       <c r="AX27" s="17">
-        <v>356064</v>
+        <v>298225</v>
       </c>
       <c r="AY27" s="17">
-        <v>330706</v>
+        <v>252542</v>
       </c>
       <c r="AZ27" s="17">
-        <v>310588</v>
+        <v>418294</v>
       </c>
       <c r="BA27" s="17">
-        <v>252722</v>
+        <v>404227</v>
       </c>
       <c r="BB27" s="17">
-        <v>418294</v>
+        <v>384279</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4450,95 +4450,95 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>12375</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>3506</v>
       </c>
       <c r="AA34" s="11">
-        <v>12375</v>
+        <v>8122</v>
       </c>
       <c r="AB34" s="11">
-        <v>3506</v>
+        <v>10724</v>
       </c>
       <c r="AC34" s="11">
-        <v>8122</v>
+        <v>2180</v>
       </c>
       <c r="AD34" s="11">
-        <v>10724</v>
+        <v>11142</v>
       </c>
       <c r="AE34" s="11">
-        <v>2180</v>
+        <v>2937</v>
       </c>
       <c r="AF34" s="11">
-        <v>11142</v>
+        <v>9547</v>
       </c>
       <c r="AG34" s="11">
-        <v>2937</v>
+        <v>11448</v>
       </c>
       <c r="AH34" s="11">
-        <v>9547</v>
+        <v>1331</v>
       </c>
       <c r="AI34" s="11">
-        <v>11448</v>
+        <v>10411</v>
       </c>
       <c r="AJ34" s="11">
-        <v>1331</v>
+        <v>10400</v>
       </c>
       <c r="AK34" s="11">
-        <v>10411</v>
+        <v>10400</v>
       </c>
       <c r="AL34" s="11">
-        <v>10400</v>
+        <v>15100</v>
       </c>
       <c r="AM34" s="11">
-        <v>10400</v>
+        <v>20558</v>
       </c>
       <c r="AN34" s="11">
-        <v>15100</v>
+        <v>17286</v>
       </c>
       <c r="AO34" s="11">
-        <v>20558</v>
+        <v>14121</v>
       </c>
       <c r="AP34" s="11">
-        <v>17286</v>
+        <v>6933</v>
       </c>
       <c r="AQ34" s="11">
-        <v>14121</v>
+        <v>16008</v>
       </c>
       <c r="AR34" s="11">
-        <v>6933</v>
+        <v>16339</v>
       </c>
       <c r="AS34" s="11">
-        <v>16008</v>
+        <v>5284</v>
       </c>
       <c r="AT34" s="11">
-        <v>16339</v>
+        <v>9425</v>
       </c>
       <c r="AU34" s="11">
-        <v>5284</v>
+        <v>14611</v>
       </c>
       <c r="AV34" s="11">
-        <v>9425</v>
+        <v>10877</v>
       </c>
       <c r="AW34" s="11">
-        <v>14611</v>
+        <v>6751</v>
       </c>
       <c r="AX34" s="11">
-        <v>10877</v>
+        <v>24094</v>
       </c>
       <c r="AY34" s="11">
-        <v>6751</v>
+        <v>6455</v>
       </c>
       <c r="AZ34" s="11">
-        <v>24094</v>
+        <v>10072</v>
       </c>
       <c r="BA34" s="11">
-        <v>6455</v>
+        <v>7454</v>
       </c>
       <c r="BB34" s="11">
-        <v>10072</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4609,80 +4609,80 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>259464</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>274662</v>
       </c>
       <c r="AA35" s="13">
-        <v>259464</v>
+        <v>345930</v>
       </c>
       <c r="AB35" s="13">
-        <v>274662</v>
+        <v>226218</v>
       </c>
       <c r="AC35" s="13">
-        <v>345930</v>
+        <v>319178</v>
       </c>
       <c r="AD35" s="13">
-        <v>226218</v>
+        <v>330991</v>
       </c>
       <c r="AE35" s="13">
-        <v>319178</v>
+        <v>324522</v>
       </c>
       <c r="AF35" s="13">
-        <v>330991</v>
+        <v>283623</v>
       </c>
       <c r="AG35" s="13">
-        <v>324522</v>
+        <v>317528</v>
       </c>
       <c r="AH35" s="13">
-        <v>283623</v>
+        <v>213982</v>
       </c>
       <c r="AI35" s="13">
-        <v>317528</v>
+        <v>366952</v>
       </c>
       <c r="AJ35" s="13">
-        <v>213982</v>
+        <v>328574</v>
       </c>
       <c r="AK35" s="13">
-        <v>366952</v>
+        <v>296840</v>
       </c>
       <c r="AL35" s="13">
-        <v>328574</v>
+        <v>205151</v>
       </c>
       <c r="AM35" s="13">
-        <v>296840</v>
+        <v>363175</v>
       </c>
       <c r="AN35" s="13">
-        <v>205151</v>
+        <v>350725</v>
       </c>
       <c r="AO35" s="13">
-        <v>363175</v>
+        <v>262978</v>
       </c>
       <c r="AP35" s="13">
-        <v>350725</v>
+        <v>265830</v>
       </c>
       <c r="AQ35" s="13">
-        <v>262978</v>
+        <v>264767</v>
       </c>
       <c r="AR35" s="13">
-        <v>265830</v>
+        <v>259009</v>
       </c>
       <c r="AS35" s="13">
-        <v>264767</v>
+        <v>300228</v>
       </c>
       <c r="AT35" s="13">
-        <v>259009</v>
+        <v>239273</v>
       </c>
       <c r="AU35" s="13">
-        <v>300228</v>
-      </c>
-      <c r="AV35" s="13">
-        <v>239273</v>
-      </c>
-      <c r="AW35" s="13">
         <v>251795</v>
+      </c>
+      <c r="AV35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX35" s="13" t="s">
         <v>58</v>
@@ -4768,95 +4768,95 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>107</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>92</v>
       </c>
       <c r="AA36" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AB36" s="11">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="AC36" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AD36" s="11">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE36" s="11">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="AF36" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AG36" s="11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AH36" s="11">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AI36" s="11">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ36" s="11">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AK36" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AL36" s="11">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AM36" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AN36" s="11">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="AO36" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="AP36" s="11">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="AQ36" s="11">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="AR36" s="11">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AS36" s="11">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AT36" s="11">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AU36" s="11">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AV36" s="11">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="AW36" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="11">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="AY36" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AZ36" s="11">
-        <v>2363</v>
+        <v>45</v>
       </c>
       <c r="BA36" s="11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BB36" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4927,95 +4927,95 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>761</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>1046</v>
       </c>
       <c r="AA37" s="13">
-        <v>761</v>
+        <v>1053</v>
       </c>
       <c r="AB37" s="13">
+        <v>684</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>742</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>984</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>800</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>843</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>469</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>466</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>944</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>938</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>938</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>681</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>675</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>874</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>690</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>786</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>505</v>
+      </c>
+      <c r="AR37" s="13">
         <v>1046</v>
       </c>
-      <c r="AC37" s="13">
-        <v>1053</v>
-      </c>
-      <c r="AD37" s="13">
-        <v>684</v>
-      </c>
-      <c r="AE37" s="13">
-        <v>742</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>984</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>800</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>843</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>469</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>466</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>944</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>938</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>938</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>681</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>675</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>874</v>
-      </c>
-      <c r="AQ37" s="13">
-        <v>690</v>
-      </c>
-      <c r="AR37" s="13">
-        <v>786</v>
-      </c>
       <c r="AS37" s="13">
-        <v>505</v>
+        <v>1009</v>
       </c>
       <c r="AT37" s="13">
-        <v>1046</v>
+        <v>501</v>
       </c>
       <c r="AU37" s="13">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="AV37" s="13">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="AW37" s="13">
-        <v>859</v>
+        <v>485</v>
       </c>
       <c r="AX37" s="13">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AY37" s="13">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="AZ37" s="13">
-        <v>793</v>
+        <v>114</v>
       </c>
       <c r="BA37" s="13">
-        <v>290</v>
+        <v>1350</v>
       </c>
       <c r="BB37" s="13">
-        <v>114</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5155,26 +5155,26 @@
       <c r="AU38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW38" s="11" t="s">
-        <v>58</v>
+      <c r="AV38" s="11">
+        <v>371793</v>
+      </c>
+      <c r="AW38" s="11">
+        <v>271081</v>
       </c>
       <c r="AX38" s="11">
-        <v>371793</v>
+        <v>288543</v>
       </c>
       <c r="AY38" s="11">
-        <v>271081</v>
+        <v>173058</v>
       </c>
       <c r="AZ38" s="11">
-        <v>286049</v>
+        <v>425996</v>
       </c>
       <c r="BA38" s="11">
-        <v>176590</v>
+        <v>418527</v>
       </c>
       <c r="BB38" s="11">
-        <v>425996</v>
+        <v>317840</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5244,94 +5244,94 @@
         <v>0</v>
       </c>
       <c r="Y39" s="15">
-        <v>0</v>
+        <v>272707</v>
       </c>
       <c r="Z39" s="15">
-        <v>0</v>
+        <v>279306</v>
       </c>
       <c r="AA39" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="AB39" s="15">
-        <v>279306</v>
+        <v>237693</v>
       </c>
       <c r="AC39" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AD39" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AE39" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AF39" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AG39" s="15">
-        <v>328280</v>
+        <v>329509</v>
       </c>
       <c r="AH39" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AI39" s="15">
-        <v>329509</v>
+        <v>378406</v>
       </c>
       <c r="AJ39" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AK39" s="15">
-        <v>378406</v>
+        <v>308240</v>
       </c>
       <c r="AL39" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AM39" s="15">
-        <v>308240</v>
+        <v>384558</v>
       </c>
       <c r="AN39" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AO39" s="15">
-        <v>384558</v>
+        <v>277913</v>
       </c>
       <c r="AP39" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AQ39" s="15">
-        <v>277913</v>
+        <v>281305</v>
       </c>
       <c r="AR39" s="15">
-        <v>273651</v>
+        <v>276472</v>
       </c>
       <c r="AS39" s="15">
-        <v>281305</v>
+        <v>306598</v>
       </c>
       <c r="AT39" s="15">
-        <v>276472</v>
+        <v>249264</v>
       </c>
       <c r="AU39" s="15">
-        <v>306598</v>
+        <v>267318</v>
       </c>
       <c r="AV39" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AW39" s="15">
-        <v>267318</v>
+        <v>278317</v>
       </c>
       <c r="AX39" s="15">
-        <v>383683</v>
+        <v>313453</v>
       </c>
       <c r="AY39" s="15">
-        <v>278317</v>
+        <v>179659</v>
       </c>
       <c r="AZ39" s="15">
-        <v>313299</v>
+        <v>436227</v>
       </c>
       <c r="BA39" s="15">
-        <v>183371</v>
+        <v>427344</v>
       </c>
       <c r="BB39" s="15">
-        <v>436227</v>
+        <v>330439</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5483,20 +5483,20 @@
       <c r="AF41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH41" s="11" t="s">
-        <v>58</v>
+      <c r="AG41" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AH41" s="11">
+        <v>0</v>
       </c>
       <c r="AI41" s="11">
-        <v>1200</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>58</v>
@@ -5507,11 +5507,11 @@
       <c r="AN41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP41" s="11" t="s">
-        <v>58</v>
+      <c r="AO41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>0</v>
       </c>
       <c r="AQ41" s="11">
         <v>0</v>
@@ -5519,11 +5519,11 @@
       <c r="AR41" s="11">
         <v>0</v>
       </c>
-      <c r="AS41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>0</v>
+      <c r="AS41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU41" s="11" t="s">
         <v>58</v>
@@ -5621,14 +5621,14 @@
       <c r="Y42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA42" s="13" t="s">
-        <v>58</v>
+      <c r="Z42" s="13">
+        <v>15813</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>0</v>
       </c>
       <c r="AB42" s="13">
-        <v>15813</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="13">
         <v>0</v>
@@ -5643,55 +5643,55 @@
         <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AH42" s="13">
         <v>0</v>
       </c>
       <c r="AI42" s="13">
-        <v>3180</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="13">
         <v>6000</v>
       </c>
+      <c r="AJ42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM42" s="13" t="s">
-        <v>58</v>
+      <c r="AM42" s="13">
+        <v>1000</v>
       </c>
       <c r="AN42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AR42" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="13">
         <v>1000</v>
       </c>
-      <c r="AP42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="13">
-        <v>10000</v>
-      </c>
-      <c r="AT42" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>6000</v>
-      </c>
       <c r="AV42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW42" s="13">
-        <v>1000</v>
+      <c r="AW42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX42" s="13" t="s">
         <v>58</v>
@@ -5804,14 +5804,14 @@
       <c r="AG43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH43" s="11" t="s">
-        <v>58</v>
+      <c r="AH43" s="11">
+        <v>0</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ43" s="11">
-        <v>0</v>
+      <c r="AJ43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK43" s="11" t="s">
         <v>58</v>
@@ -5828,17 +5828,17 @@
       <c r="AO43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>0</v>
+      <c r="AP43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT43" s="11" t="s">
         <v>58</v>
@@ -5939,14 +5939,14 @@
       <c r="Y44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA44" s="13" t="s">
-        <v>58</v>
+      <c r="Z44" s="13">
+        <v>87</v>
+      </c>
+      <c r="AA44" s="13">
+        <v>0</v>
       </c>
       <c r="AB44" s="13">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="13">
         <v>0</v>
@@ -5967,14 +5967,14 @@
         <v>0</v>
       </c>
       <c r="AI44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="13">
         <v>210</v>
       </c>
+      <c r="AJ44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL44" s="13" t="s">
         <v>58</v>
       </c>
@@ -5984,20 +5984,20 @@
       <c r="AN44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP44" s="13" t="s">
-        <v>58</v>
+      <c r="AO44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="13">
+        <v>0</v>
       </c>
       <c r="AQ44" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR44" s="13">
         <v>0</v>
       </c>
       <c r="AS44" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
         <v>0</v>
@@ -6005,26 +6005,26 @@
       <c r="AU44" s="13">
         <v>0</v>
       </c>
-      <c r="AV44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX44" s="13" t="s">
-        <v>58</v>
+      <c r="AV44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>0</v>
       </c>
       <c r="AY44" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AZ44" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BA44" s="13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="BB44" s="13">
-        <v>300</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6164,26 +6164,26 @@
       <c r="AU45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>58</v>
+      <c r="AV45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="11">
+        <v>0</v>
       </c>
       <c r="AX45" s="11">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AY45" s="11">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AZ45" s="11">
-        <v>14999</v>
+        <v>350</v>
       </c>
       <c r="BA45" s="11">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="11">
-        <v>350</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6256,13 +6256,13 @@
         <v>0</v>
       </c>
       <c r="Z46" s="15">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="AA46" s="15">
         <v>0</v>
       </c>
       <c r="AB46" s="15">
-        <v>15900</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="15">
         <v>0</v>
@@ -6277,70 +6277,70 @@
         <v>0</v>
       </c>
       <c r="AG46" s="15">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="AH46" s="15">
         <v>0</v>
       </c>
       <c r="AI46" s="15">
-        <v>4380</v>
+        <v>6210</v>
       </c>
       <c r="AJ46" s="15">
         <v>0</v>
       </c>
       <c r="AK46" s="15">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="15">
         <v>0</v>
       </c>
       <c r="AM46" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" s="15">
         <v>0</v>
       </c>
       <c r="AO46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="15">
+        <v>10050</v>
+      </c>
+      <c r="AR46" s="15">
+        <v>25000</v>
+      </c>
+      <c r="AS46" s="15">
+        <v>6000</v>
+      </c>
+      <c r="AT46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="15">
         <v>1000</v>
       </c>
-      <c r="AP46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="15">
-        <v>10050</v>
-      </c>
-      <c r="AT46" s="15">
-        <v>25000</v>
-      </c>
-      <c r="AU46" s="15">
-        <v>6000</v>
-      </c>
       <c r="AV46" s="15">
         <v>0</v>
       </c>
       <c r="AW46" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="15">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AY46" s="15">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="AZ46" s="15">
-        <v>14999</v>
+        <v>650</v>
       </c>
       <c r="BA46" s="15">
-        <v>11180</v>
+        <v>300</v>
       </c>
       <c r="BB46" s="15">
-        <v>650</v>
+        <v>15025</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6495,14 +6495,14 @@
       <c r="AG48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="11" t="s">
-        <v>58</v>
+      <c r="AH48" s="11">
+        <v>0</v>
       </c>
       <c r="AI48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ48" s="11">
-        <v>0</v>
+      <c r="AJ48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK48" s="11" t="s">
         <v>58</v>
@@ -6625,11 +6625,11 @@
       <c r="X49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="15" t="s">
-        <v>58</v>
+      <c r="Y49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="15">
+        <v>0</v>
       </c>
       <c r="AA49" s="15">
         <v>0</v>
@@ -6839,11 +6839,11 @@
       <c r="X51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>58</v>
+      <c r="Y51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="17">
+        <v>0</v>
       </c>
       <c r="AA51" s="17">
         <v>0</v>
@@ -6997,94 +6997,94 @@
         <v>0</v>
       </c>
       <c r="Y52" s="15">
-        <v>0</v>
+        <v>272707</v>
       </c>
       <c r="Z52" s="15">
-        <v>0</v>
+        <v>295206</v>
       </c>
       <c r="AA52" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="AB52" s="15">
-        <v>295206</v>
+        <v>237693</v>
       </c>
       <c r="AC52" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AD52" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AE52" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AF52" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AG52" s="15">
-        <v>328280</v>
+        <v>333889</v>
       </c>
       <c r="AH52" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AI52" s="15">
-        <v>333889</v>
+        <v>384616</v>
       </c>
       <c r="AJ52" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AK52" s="15">
-        <v>384616</v>
+        <v>308240</v>
       </c>
       <c r="AL52" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AM52" s="15">
-        <v>308240</v>
+        <v>385558</v>
       </c>
       <c r="AN52" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AO52" s="15">
-        <v>385558</v>
+        <v>277913</v>
       </c>
       <c r="AP52" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AQ52" s="15">
-        <v>277913</v>
+        <v>291355</v>
       </c>
       <c r="AR52" s="15">
-        <v>273651</v>
+        <v>301472</v>
       </c>
       <c r="AS52" s="15">
-        <v>291355</v>
+        <v>312598</v>
       </c>
       <c r="AT52" s="15">
-        <v>301472</v>
+        <v>249264</v>
       </c>
       <c r="AU52" s="15">
-        <v>312598</v>
+        <v>268318</v>
       </c>
       <c r="AV52" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AW52" s="15">
-        <v>268318</v>
+        <v>278317</v>
       </c>
       <c r="AX52" s="15">
-        <v>383683</v>
+        <v>328452</v>
       </c>
       <c r="AY52" s="15">
-        <v>278317</v>
+        <v>190839</v>
       </c>
       <c r="AZ52" s="15">
-        <v>328298</v>
+        <v>436877</v>
       </c>
       <c r="BA52" s="15">
-        <v>194551</v>
+        <v>427644</v>
       </c>
       <c r="BB52" s="15">
-        <v>436877</v>
+        <v>345464</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7589,95 +7589,95 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>37005</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>5457</v>
       </c>
       <c r="AA59" s="11">
-        <v>37005</v>
+        <v>16515</v>
       </c>
       <c r="AB59" s="11">
-        <v>5457</v>
+        <v>39129</v>
       </c>
       <c r="AC59" s="11">
-        <v>16515</v>
+        <v>11941</v>
       </c>
       <c r="AD59" s="11">
-        <v>39129</v>
+        <v>26706</v>
       </c>
       <c r="AE59" s="11">
-        <v>11941</v>
+        <v>2221</v>
       </c>
       <c r="AF59" s="11">
-        <v>26706</v>
+        <v>22884</v>
       </c>
       <c r="AG59" s="11">
-        <v>2221</v>
+        <v>25614</v>
       </c>
       <c r="AH59" s="11">
-        <v>22884</v>
+        <v>8282</v>
       </c>
       <c r="AI59" s="11">
-        <v>25614</v>
+        <v>68285</v>
       </c>
       <c r="AJ59" s="11">
-        <v>8282</v>
+        <v>68212</v>
       </c>
       <c r="AK59" s="11">
-        <v>68285</v>
+        <v>68212</v>
       </c>
       <c r="AL59" s="11">
-        <v>68212</v>
+        <v>103575</v>
       </c>
       <c r="AM59" s="11">
-        <v>68212</v>
+        <v>92534</v>
       </c>
       <c r="AN59" s="11">
-        <v>103575</v>
+        <v>47591</v>
       </c>
       <c r="AO59" s="11">
-        <v>92534</v>
+        <v>72237</v>
       </c>
       <c r="AP59" s="11">
-        <v>47591</v>
+        <v>22570</v>
       </c>
       <c r="AQ59" s="11">
-        <v>72237</v>
+        <v>70012</v>
       </c>
       <c r="AR59" s="11">
-        <v>22570</v>
+        <v>63242</v>
       </c>
       <c r="AS59" s="11">
-        <v>70012</v>
+        <v>24151</v>
       </c>
       <c r="AT59" s="11">
-        <v>63242</v>
+        <v>52613</v>
       </c>
       <c r="AU59" s="11">
-        <v>24151</v>
+        <v>46181</v>
       </c>
       <c r="AV59" s="11">
-        <v>52613</v>
+        <v>37662</v>
       </c>
       <c r="AW59" s="11">
-        <v>46181</v>
+        <v>32597</v>
       </c>
       <c r="AX59" s="11">
-        <v>37662</v>
+        <v>141359</v>
       </c>
       <c r="AY59" s="11">
-        <v>32597</v>
+        <v>54050</v>
       </c>
       <c r="AZ59" s="11">
-        <v>141359</v>
+        <v>76864</v>
       </c>
       <c r="BA59" s="11">
-        <v>54050</v>
+        <v>43788</v>
       </c>
       <c r="BB59" s="11">
-        <v>76864</v>
+        <v>70948</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7748,80 +7748,80 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>353228</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>425148</v>
       </c>
       <c r="AA60" s="13">
-        <v>353228</v>
+        <v>532462</v>
       </c>
       <c r="AB60" s="13">
-        <v>425148</v>
+        <v>404640</v>
       </c>
       <c r="AC60" s="13">
-        <v>532462</v>
+        <v>548260</v>
       </c>
       <c r="AD60" s="13">
-        <v>404640</v>
+        <v>609187</v>
       </c>
       <c r="AE60" s="13">
-        <v>548260</v>
+        <v>537573</v>
       </c>
       <c r="AF60" s="13">
-        <v>609187</v>
+        <v>522007</v>
       </c>
       <c r="AG60" s="13">
-        <v>537573</v>
+        <v>365692</v>
       </c>
       <c r="AH60" s="13">
-        <v>522007</v>
+        <v>275262</v>
       </c>
       <c r="AI60" s="13">
-        <v>365692</v>
+        <v>534469</v>
       </c>
       <c r="AJ60" s="13">
-        <v>275262</v>
+        <v>483686</v>
       </c>
       <c r="AK60" s="13">
-        <v>534469</v>
+        <v>463686</v>
       </c>
       <c r="AL60" s="13">
-        <v>483686</v>
+        <v>334781</v>
       </c>
       <c r="AM60" s="13">
-        <v>463686</v>
+        <v>529186</v>
       </c>
       <c r="AN60" s="13">
-        <v>334781</v>
+        <v>786507</v>
       </c>
       <c r="AO60" s="13">
-        <v>529186</v>
+        <v>576574</v>
       </c>
       <c r="AP60" s="13">
-        <v>786507</v>
+        <v>429011</v>
       </c>
       <c r="AQ60" s="13">
-        <v>576574</v>
+        <v>409607</v>
       </c>
       <c r="AR60" s="13">
-        <v>429011</v>
+        <v>349366</v>
       </c>
       <c r="AS60" s="13">
-        <v>409607</v>
+        <v>483625</v>
       </c>
       <c r="AT60" s="13">
-        <v>349366</v>
+        <v>421014</v>
       </c>
       <c r="AU60" s="13">
-        <v>483625</v>
-      </c>
-      <c r="AV60" s="13">
-        <v>421014</v>
-      </c>
-      <c r="AW60" s="13">
         <v>457702</v>
+      </c>
+      <c r="AV60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX60" s="13" t="s">
         <v>58</v>
@@ -7907,95 +7907,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>20181</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>16628</v>
       </c>
       <c r="AA61" s="11">
-        <v>20181</v>
+        <v>13083</v>
       </c>
       <c r="AB61" s="11">
-        <v>16628</v>
+        <v>9166</v>
       </c>
       <c r="AC61" s="11">
-        <v>13083</v>
+        <v>14008</v>
       </c>
       <c r="AD61" s="11">
-        <v>9166</v>
+        <v>9208</v>
       </c>
       <c r="AE61" s="11">
-        <v>14008</v>
+        <v>1236</v>
       </c>
       <c r="AF61" s="11">
-        <v>9208</v>
+        <v>17009</v>
       </c>
       <c r="AG61" s="11">
-        <v>1236</v>
+        <v>3272</v>
       </c>
       <c r="AH61" s="11">
-        <v>17009</v>
+        <v>6634</v>
       </c>
       <c r="AI61" s="11">
-        <v>3272</v>
+        <v>19912</v>
       </c>
       <c r="AJ61" s="11">
-        <v>6634</v>
+        <v>12402</v>
       </c>
       <c r="AK61" s="11">
-        <v>19912</v>
+        <v>12402</v>
       </c>
       <c r="AL61" s="11">
-        <v>12402</v>
+        <v>20211</v>
       </c>
       <c r="AM61" s="11">
-        <v>12402</v>
+        <v>42188</v>
       </c>
       <c r="AN61" s="11">
-        <v>20211</v>
+        <v>5677</v>
       </c>
       <c r="AO61" s="11">
-        <v>42188</v>
+        <v>4572</v>
       </c>
       <c r="AP61" s="11">
-        <v>5677</v>
+        <v>1923</v>
       </c>
       <c r="AQ61" s="11">
-        <v>4572</v>
+        <v>467</v>
       </c>
       <c r="AR61" s="11">
-        <v>1923</v>
+        <v>1645</v>
       </c>
       <c r="AS61" s="11">
-        <v>467</v>
+        <v>2503</v>
       </c>
       <c r="AT61" s="11">
-        <v>1645</v>
+        <v>2275</v>
       </c>
       <c r="AU61" s="11">
-        <v>2503</v>
+        <v>1812</v>
       </c>
       <c r="AV61" s="11">
-        <v>2275</v>
+        <v>17443</v>
       </c>
       <c r="AW61" s="11">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="11">
-        <v>17443</v>
+        <v>3636</v>
       </c>
       <c r="AY61" s="11">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="AZ61" s="11">
-        <v>3636</v>
+        <v>7658</v>
       </c>
       <c r="BA61" s="11">
-        <v>7361</v>
+        <v>3317</v>
       </c>
       <c r="BB61" s="11">
-        <v>7658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8066,95 +8066,95 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13">
+        <v>21231</v>
+      </c>
+      <c r="Z62" s="13">
+        <v>41499</v>
       </c>
       <c r="AA62" s="13">
-        <v>21231</v>
+        <v>38078</v>
       </c>
       <c r="AB62" s="13">
-        <v>41499</v>
+        <v>26933</v>
       </c>
       <c r="AC62" s="13">
-        <v>38078</v>
+        <v>32868</v>
       </c>
       <c r="AD62" s="13">
-        <v>26933</v>
+        <v>56274</v>
       </c>
       <c r="AE62" s="13">
-        <v>32868</v>
+        <v>32842</v>
       </c>
       <c r="AF62" s="13">
-        <v>56274</v>
+        <v>48221</v>
       </c>
       <c r="AG62" s="13">
-        <v>32842</v>
+        <v>48161</v>
       </c>
       <c r="AH62" s="13">
-        <v>48221</v>
+        <v>28093</v>
       </c>
       <c r="AI62" s="13">
-        <v>48161</v>
+        <v>62572</v>
       </c>
       <c r="AJ62" s="13">
-        <v>28093</v>
+        <v>55810</v>
       </c>
       <c r="AK62" s="13">
-        <v>62572</v>
+        <v>55810</v>
       </c>
       <c r="AL62" s="13">
-        <v>55810</v>
+        <v>42539</v>
       </c>
       <c r="AM62" s="13">
-        <v>55810</v>
+        <v>38094</v>
       </c>
       <c r="AN62" s="13">
-        <v>42539</v>
+        <v>36617</v>
       </c>
       <c r="AO62" s="13">
-        <v>38094</v>
+        <v>47117</v>
       </c>
       <c r="AP62" s="13">
-        <v>36617</v>
+        <v>47097</v>
       </c>
       <c r="AQ62" s="13">
-        <v>47117</v>
+        <v>22996</v>
       </c>
       <c r="AR62" s="13">
-        <v>47097</v>
+        <v>99798</v>
       </c>
       <c r="AS62" s="13">
-        <v>22996</v>
+        <v>76587</v>
       </c>
       <c r="AT62" s="13">
-        <v>99798</v>
+        <v>32617</v>
       </c>
       <c r="AU62" s="13">
-        <v>76587</v>
+        <v>49479</v>
       </c>
       <c r="AV62" s="13">
-        <v>32617</v>
+        <v>44695</v>
       </c>
       <c r="AW62" s="13">
-        <v>49479</v>
+        <v>59455</v>
       </c>
       <c r="AX62" s="13">
-        <v>44695</v>
+        <v>85461</v>
       </c>
       <c r="AY62" s="13">
-        <v>59455</v>
+        <v>59728</v>
       </c>
       <c r="AZ62" s="13">
-        <v>85461</v>
+        <v>6043</v>
       </c>
       <c r="BA62" s="13">
-        <v>59728</v>
+        <v>100733</v>
       </c>
       <c r="BB62" s="13">
-        <v>6043</v>
+        <v>150504</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8294,26 +8294,26 @@
       <c r="AU63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW63" s="11" t="s">
-        <v>58</v>
+      <c r="AV63" s="11">
+        <v>706765</v>
+      </c>
+      <c r="AW63" s="11">
+        <v>750121</v>
       </c>
       <c r="AX63" s="11">
-        <v>706765</v>
+        <v>678342</v>
       </c>
       <c r="AY63" s="11">
-        <v>757101</v>
+        <v>1107166</v>
       </c>
       <c r="AZ63" s="11">
-        <v>773206</v>
+        <v>1157245</v>
       </c>
       <c r="BA63" s="11">
-        <v>1107166</v>
+        <v>1075729</v>
       </c>
       <c r="BB63" s="11">
-        <v>1157245</v>
+        <v>1036983</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8383,94 +8383,94 @@
         <v>0</v>
       </c>
       <c r="Y64" s="15">
-        <v>0</v>
+        <v>431645</v>
       </c>
       <c r="Z64" s="15">
-        <v>0</v>
+        <v>488732</v>
       </c>
       <c r="AA64" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="AB64" s="15">
-        <v>488732</v>
+        <v>479868</v>
       </c>
       <c r="AC64" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AD64" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AE64" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AF64" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AG64" s="15">
-        <v>573872</v>
+        <v>442739</v>
       </c>
       <c r="AH64" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AI64" s="15">
-        <v>442739</v>
+        <v>685238</v>
       </c>
       <c r="AJ64" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AK64" s="15">
-        <v>685238</v>
+        <v>600110</v>
       </c>
       <c r="AL64" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AM64" s="15">
-        <v>600110</v>
+        <v>702002</v>
       </c>
       <c r="AN64" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AO64" s="15">
-        <v>702002</v>
+        <v>700500</v>
       </c>
       <c r="AP64" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AQ64" s="15">
-        <v>700500</v>
+        <v>503082</v>
       </c>
       <c r="AR64" s="15">
-        <v>500601</v>
+        <v>514051</v>
       </c>
       <c r="AS64" s="15">
-        <v>503082</v>
+        <v>586866</v>
       </c>
       <c r="AT64" s="15">
-        <v>514051</v>
+        <v>508519</v>
       </c>
       <c r="AU64" s="15">
-        <v>586866</v>
+        <v>555174</v>
       </c>
       <c r="AV64" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AW64" s="15">
-        <v>555174</v>
+        <v>842173</v>
       </c>
       <c r="AX64" s="15">
-        <v>806565</v>
+        <v>908798</v>
       </c>
       <c r="AY64" s="15">
-        <v>849153</v>
+        <v>1228305</v>
       </c>
       <c r="AZ64" s="15">
-        <v>1003662</v>
+        <v>1247810</v>
       </c>
       <c r="BA64" s="15">
-        <v>1228305</v>
+        <v>1223567</v>
       </c>
       <c r="BB64" s="15">
-        <v>1247810</v>
+        <v>1258435</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8622,14 +8622,14 @@
       <c r="AF66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH66" s="11" t="s">
-        <v>58</v>
+      <c r="AG66" s="11">
+        <v>3817</v>
+      </c>
+      <c r="AH66" s="11">
+        <v>0</v>
       </c>
       <c r="AI66" s="11">
-        <v>3817</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="11">
         <v>0</v>
@@ -8661,11 +8661,11 @@
       <c r="AS66" s="11">
         <v>0</v>
       </c>
-      <c r="AT66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU66" s="11">
-        <v>0</v>
+      <c r="AT66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV66" s="11" t="s">
         <v>58</v>
@@ -8760,14 +8760,14 @@
       <c r="Y67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA67" s="13" t="s">
-        <v>58</v>
+      <c r="Z67" s="13">
+        <v>49022</v>
+      </c>
+      <c r="AA67" s="13">
+        <v>0</v>
       </c>
       <c r="AB67" s="13">
-        <v>49022</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="13">
         <v>0</v>
@@ -8782,55 +8782,55 @@
         <v>0</v>
       </c>
       <c r="AG67" s="13">
-        <v>0</v>
+        <v>18010</v>
       </c>
       <c r="AH67" s="13">
         <v>0</v>
       </c>
       <c r="AI67" s="13">
-        <v>18010</v>
+        <v>14543</v>
       </c>
       <c r="AJ67" s="13">
         <v>0</v>
       </c>
       <c r="AK67" s="13">
-        <v>14543</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="13">
         <v>0</v>
       </c>
       <c r="AM67" s="13">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AN67" s="13">
         <v>0</v>
       </c>
       <c r="AO67" s="13">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="AP67" s="13">
         <v>0</v>
       </c>
       <c r="AQ67" s="13">
-        <v>0</v>
+        <v>18303</v>
       </c>
       <c r="AR67" s="13">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="AS67" s="13">
-        <v>18303</v>
+        <v>21335</v>
       </c>
       <c r="AT67" s="13">
-        <v>56950</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="13">
-        <v>21335</v>
+        <v>1250</v>
       </c>
       <c r="AV67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW67" s="13">
-        <v>1250</v>
+      <c r="AW67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX67" s="13" t="s">
         <v>58</v>
@@ -8943,11 +8943,11 @@
       <c r="AG68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI68" s="11" t="s">
-        <v>58</v>
+      <c r="AH68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>0</v>
       </c>
       <c r="AJ68" s="11">
         <v>0</v>
@@ -8979,11 +8979,11 @@
       <c r="AS68" s="11">
         <v>0</v>
       </c>
-      <c r="AT68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="11">
-        <v>0</v>
+      <c r="AT68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV68" s="11" t="s">
         <v>58</v>
@@ -9078,14 +9078,14 @@
       <c r="Y69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA69" s="13" t="s">
-        <v>58</v>
+      <c r="Z69" s="13">
+        <v>2693</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>0</v>
       </c>
       <c r="AB69" s="13">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="13">
         <v>0</v>
@@ -9106,13 +9106,13 @@
         <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>0</v>
+        <v>6085</v>
       </c>
       <c r="AJ69" s="13">
         <v>0</v>
       </c>
       <c r="AK69" s="13">
-        <v>6085</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="13">
         <v>0</v>
@@ -9130,13 +9130,13 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="13">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="AR69" s="13">
         <v>0</v>
       </c>
       <c r="AS69" s="13">
-        <v>2508</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="13">
         <v>0</v>
@@ -9144,8 +9144,8 @@
       <c r="AU69" s="13">
         <v>0</v>
       </c>
-      <c r="AV69" s="13" t="s">
-        <v>58</v>
+      <c r="AV69" s="13">
+        <v>0</v>
       </c>
       <c r="AW69" s="13">
         <v>0</v>
@@ -9154,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="AY69" s="13">
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="AZ69" s="13">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="BA69" s="13">
-        <v>9249</v>
+        <v>15000</v>
       </c>
       <c r="BB69" s="13">
-        <v>12300</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9303,26 +9303,26 @@
       <c r="AU70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW70" s="11" t="s">
-        <v>58</v>
+      <c r="AV70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="11">
+        <v>0</v>
       </c>
       <c r="AX70" s="11">
-        <v>0</v>
+        <v>48518</v>
       </c>
       <c r="AY70" s="11">
-        <v>0</v>
+        <v>7580</v>
       </c>
       <c r="AZ70" s="11">
-        <v>48518</v>
+        <v>855</v>
       </c>
       <c r="BA70" s="11">
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="11">
-        <v>855</v>
+        <v>25898</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9395,13 +9395,13 @@
         <v>0</v>
       </c>
       <c r="Z71" s="15">
-        <v>0</v>
+        <v>51715</v>
       </c>
       <c r="AA71" s="15">
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <v>51715</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="15">
         <v>0</v>
@@ -9416,70 +9416,70 @@
         <v>0</v>
       </c>
       <c r="AG71" s="15">
-        <v>0</v>
+        <v>21827</v>
       </c>
       <c r="AH71" s="15">
         <v>0</v>
       </c>
       <c r="AI71" s="15">
-        <v>21827</v>
+        <v>20628</v>
       </c>
       <c r="AJ71" s="15">
         <v>0</v>
       </c>
       <c r="AK71" s="15">
-        <v>20628</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="15">
         <v>0</v>
       </c>
       <c r="AM71" s="15">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AN71" s="15">
         <v>0</v>
       </c>
       <c r="AO71" s="15">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="AP71" s="15">
         <v>0</v>
       </c>
       <c r="AQ71" s="15">
-        <v>0</v>
+        <v>20811</v>
       </c>
       <c r="AR71" s="15">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="AS71" s="15">
-        <v>20811</v>
+        <v>21335</v>
       </c>
       <c r="AT71" s="15">
-        <v>56950</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="15">
-        <v>21335</v>
+        <v>1250</v>
       </c>
       <c r="AV71" s="15">
         <v>0</v>
       </c>
       <c r="AW71" s="15">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AX71" s="15">
-        <v>0</v>
+        <v>48518</v>
       </c>
       <c r="AY71" s="15">
-        <v>0</v>
+        <v>16829</v>
       </c>
       <c r="AZ71" s="15">
-        <v>48518</v>
+        <v>13155</v>
       </c>
       <c r="BA71" s="15">
-        <v>16829</v>
+        <v>15000</v>
       </c>
       <c r="BB71" s="15">
-        <v>13155</v>
+        <v>28694</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9634,11 +9634,11 @@
       <c r="AG73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI73" s="11" t="s">
-        <v>58</v>
+      <c r="AH73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="11">
+        <v>0</v>
       </c>
       <c r="AJ73" s="11">
         <v>0</v>
@@ -9670,11 +9670,11 @@
       <c r="AS73" s="11">
         <v>0</v>
       </c>
-      <c r="AT73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU73" s="11">
-        <v>0</v>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
@@ -9766,11 +9766,11 @@
       <c r="X74" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="15" t="s">
-        <v>58</v>
+      <c r="Y74" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="15">
+        <v>0</v>
       </c>
       <c r="AA74" s="15">
         <v>0</v>
@@ -9982,11 +9982,11 @@
       <c r="X76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z76" s="17" t="s">
-        <v>58</v>
+      <c r="Y76" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="17">
+        <v>0</v>
       </c>
       <c r="AA76" s="17">
         <v>0</v>
@@ -10198,11 +10198,11 @@
       <c r="X78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z78" s="11" t="s">
-        <v>58</v>
+      <c r="Y78" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>0</v>
       </c>
       <c r="AA78" s="11">
         <v>0</v>
@@ -10356,94 +10356,94 @@
         <v>0</v>
       </c>
       <c r="Y79" s="15">
-        <v>0</v>
+        <v>431645</v>
       </c>
       <c r="Z79" s="15">
-        <v>0</v>
+        <v>540447</v>
       </c>
       <c r="AA79" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="AB79" s="15">
-        <v>540447</v>
+        <v>479868</v>
       </c>
       <c r="AC79" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AD79" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AE79" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AF79" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AG79" s="15">
-        <v>573872</v>
+        <v>464566</v>
       </c>
       <c r="AH79" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AI79" s="15">
-        <v>464566</v>
+        <v>705866</v>
       </c>
       <c r="AJ79" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AK79" s="15">
-        <v>705866</v>
+        <v>600110</v>
       </c>
       <c r="AL79" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AM79" s="15">
-        <v>600110</v>
+        <v>703409</v>
       </c>
       <c r="AN79" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AO79" s="15">
-        <v>703409</v>
+        <v>700500</v>
       </c>
       <c r="AP79" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AQ79" s="15">
-        <v>700500</v>
+        <v>523893</v>
       </c>
       <c r="AR79" s="15">
-        <v>500601</v>
+        <v>571001</v>
       </c>
       <c r="AS79" s="15">
-        <v>523893</v>
+        <v>608201</v>
       </c>
       <c r="AT79" s="15">
-        <v>571001</v>
+        <v>508519</v>
       </c>
       <c r="AU79" s="15">
-        <v>608201</v>
+        <v>556424</v>
       </c>
       <c r="AV79" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AW79" s="15">
-        <v>556424</v>
+        <v>842173</v>
       </c>
       <c r="AX79" s="15">
-        <v>806565</v>
+        <v>957316</v>
       </c>
       <c r="AY79" s="15">
-        <v>849153</v>
+        <v>1245134</v>
       </c>
       <c r="AZ79" s="15">
-        <v>1052180</v>
+        <v>1260965</v>
       </c>
       <c r="BA79" s="15">
-        <v>1245134</v>
+        <v>1238567</v>
       </c>
       <c r="BB79" s="15">
-        <v>1260965</v>
+        <v>1287129</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10948,95 +10948,95 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>2990303</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>1556475</v>
       </c>
       <c r="AA86" s="11">
-        <v>2990303</v>
+        <v>2033366</v>
       </c>
       <c r="AB86" s="11">
-        <v>1556475</v>
+        <v>3648732</v>
       </c>
       <c r="AC86" s="11">
-        <v>2033366</v>
+        <v>5477523</v>
       </c>
       <c r="AD86" s="11">
-        <v>3648732</v>
+        <v>2396877</v>
       </c>
       <c r="AE86" s="11">
-        <v>5477523</v>
+        <v>756214</v>
       </c>
       <c r="AF86" s="11">
-        <v>2396877</v>
+        <v>2396983</v>
       </c>
       <c r="AG86" s="11">
-        <v>756214</v>
+        <v>2237421</v>
       </c>
       <c r="AH86" s="11">
-        <v>2396983</v>
+        <v>6222389</v>
       </c>
       <c r="AI86" s="11">
-        <v>2237421</v>
+        <v>6558928</v>
       </c>
       <c r="AJ86" s="11">
-        <v>6222389</v>
+        <v>6558846</v>
       </c>
       <c r="AK86" s="11">
-        <v>6558928</v>
+        <v>6558846</v>
       </c>
       <c r="AL86" s="11">
-        <v>6558846</v>
+        <v>6859272</v>
       </c>
       <c r="AM86" s="11">
-        <v>6558846</v>
+        <v>4501119</v>
       </c>
       <c r="AN86" s="11">
-        <v>6859272</v>
+        <v>2753153</v>
       </c>
       <c r="AO86" s="11">
-        <v>4501119</v>
+        <v>5115573</v>
       </c>
       <c r="AP86" s="11">
-        <v>2753153</v>
+        <v>3255445</v>
       </c>
       <c r="AQ86" s="11">
-        <v>5115573</v>
+        <v>4373563</v>
       </c>
       <c r="AR86" s="11">
-        <v>3255445</v>
+        <v>3870616</v>
       </c>
       <c r="AS86" s="11">
-        <v>4373563</v>
+        <v>4570590</v>
       </c>
       <c r="AT86" s="11">
-        <v>3870616</v>
+        <v>5582281</v>
       </c>
       <c r="AU86" s="11">
-        <v>4570590</v>
+        <v>3160701</v>
       </c>
       <c r="AV86" s="11">
-        <v>5582281</v>
+        <v>3462536</v>
       </c>
       <c r="AW86" s="11">
-        <v>3160701</v>
+        <v>4828470</v>
       </c>
       <c r="AX86" s="11">
-        <v>3462536</v>
+        <v>5866979</v>
       </c>
       <c r="AY86" s="11">
-        <v>4828470</v>
+        <v>8373354</v>
       </c>
       <c r="AZ86" s="11">
-        <v>5866979</v>
+        <v>7631454</v>
       </c>
       <c r="BA86" s="11">
-        <v>8373354</v>
+        <v>5874430</v>
       </c>
       <c r="BB86" s="11">
-        <v>7631454</v>
+        <v>6314347</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11107,80 +11107,80 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>1361376</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>1547895</v>
       </c>
       <c r="AA87" s="13">
-        <v>1361376</v>
+        <v>1539219</v>
       </c>
       <c r="AB87" s="13">
-        <v>1547895</v>
+        <v>1788717</v>
       </c>
       <c r="AC87" s="13">
-        <v>1539219</v>
+        <v>1717725</v>
       </c>
       <c r="AD87" s="13">
-        <v>1788717</v>
+        <v>1840494</v>
       </c>
       <c r="AE87" s="13">
-        <v>1717725</v>
+        <v>1656507</v>
       </c>
       <c r="AF87" s="13">
-        <v>1840494</v>
+        <v>1840496</v>
       </c>
       <c r="AG87" s="13">
-        <v>1656507</v>
+        <v>1151684</v>
       </c>
       <c r="AH87" s="13">
-        <v>1840496</v>
+        <v>1286379</v>
       </c>
       <c r="AI87" s="13">
-        <v>1151684</v>
+        <v>1456509</v>
       </c>
       <c r="AJ87" s="13">
-        <v>1286379</v>
+        <v>1472076</v>
       </c>
       <c r="AK87" s="13">
-        <v>1456509</v>
+        <v>1562074</v>
       </c>
       <c r="AL87" s="13">
-        <v>1472076</v>
+        <v>1631876</v>
       </c>
       <c r="AM87" s="13">
-        <v>1562074</v>
+        <v>1457110</v>
       </c>
       <c r="AN87" s="13">
-        <v>1631876</v>
+        <v>2242518</v>
       </c>
       <c r="AO87" s="13">
-        <v>1457110</v>
+        <v>2192480</v>
       </c>
       <c r="AP87" s="13">
-        <v>2242518</v>
+        <v>1613855</v>
       </c>
       <c r="AQ87" s="13">
-        <v>2192480</v>
+        <v>1547047</v>
       </c>
       <c r="AR87" s="13">
-        <v>1613855</v>
+        <v>1348857</v>
       </c>
       <c r="AS87" s="13">
-        <v>1547047</v>
+        <v>1610859</v>
       </c>
       <c r="AT87" s="13">
-        <v>1348857</v>
+        <v>1759555</v>
       </c>
       <c r="AU87" s="13">
-        <v>1610859</v>
-      </c>
-      <c r="AV87" s="13">
-        <v>1759555</v>
-      </c>
-      <c r="AW87" s="13">
         <v>1817757</v>
+      </c>
+      <c r="AV87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX87" s="13" t="s">
         <v>58</v>
@@ -11266,95 +11266,95 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>188607477</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>180739130</v>
       </c>
       <c r="AA88" s="11">
-        <v>188607477</v>
+        <v>184267606</v>
       </c>
       <c r="AB88" s="11">
-        <v>180739130</v>
+        <v>136805970</v>
       </c>
       <c r="AC88" s="11">
-        <v>184267606</v>
+        <v>168771084</v>
       </c>
       <c r="AD88" s="11">
-        <v>136805970</v>
+        <v>180549020</v>
       </c>
       <c r="AE88" s="11">
-        <v>168771084</v>
+        <v>58857143</v>
       </c>
       <c r="AF88" s="11">
-        <v>180549020</v>
+        <v>180946809</v>
       </c>
       <c r="AG88" s="11">
-        <v>58857143</v>
+        <v>51125000</v>
       </c>
       <c r="AH88" s="11">
-        <v>180946809</v>
+        <v>189542857</v>
       </c>
       <c r="AI88" s="11">
-        <v>51125000</v>
+        <v>201131313</v>
       </c>
       <c r="AJ88" s="11">
-        <v>189542857</v>
+        <v>203311475</v>
       </c>
       <c r="AK88" s="11">
-        <v>201131313</v>
+        <v>200032258</v>
       </c>
       <c r="AL88" s="11">
-        <v>203311475</v>
+        <v>200108911</v>
       </c>
       <c r="AM88" s="11">
-        <v>200032258</v>
+        <v>281253333</v>
       </c>
       <c r="AN88" s="11">
-        <v>200108911</v>
+        <v>35704403</v>
       </c>
       <c r="AO88" s="11">
-        <v>281253333</v>
+        <v>36870968</v>
       </c>
       <c r="AP88" s="11">
-        <v>35704403</v>
+        <v>18852941</v>
       </c>
       <c r="AQ88" s="11">
-        <v>36870968</v>
+        <v>18680000</v>
       </c>
       <c r="AR88" s="11">
-        <v>18852941</v>
+        <v>21089744</v>
       </c>
       <c r="AS88" s="11">
-        <v>18680000</v>
+        <v>32506494</v>
       </c>
       <c r="AT88" s="11">
-        <v>21089744</v>
+        <v>35000000</v>
       </c>
       <c r="AU88" s="11">
-        <v>32506494</v>
+        <v>34188679</v>
       </c>
       <c r="AV88" s="11">
-        <v>35000000</v>
+        <v>73599156</v>
       </c>
       <c r="AW88" s="11">
-        <v>34188679</v>
+        <v>0</v>
       </c>
       <c r="AX88" s="11">
-        <v>73599156</v>
-      </c>
-      <c r="AY88" s="11" t="s">
-        <v>58</v>
+        <v>58856428</v>
+      </c>
+      <c r="AY88" s="11">
+        <v>204472222</v>
       </c>
       <c r="AZ88" s="11">
-        <v>1538722</v>
+        <v>170177778</v>
       </c>
       <c r="BA88" s="11">
-        <v>204472222</v>
-      </c>
-      <c r="BB88" s="11">
-        <v>170177778</v>
+        <v>255153846</v>
+      </c>
+      <c r="BB88" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11425,95 +11425,95 @@
       <c r="X89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z89" s="13" t="s">
-        <v>58</v>
+      <c r="Y89" s="13">
+        <v>27898817</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>39673996</v>
       </c>
       <c r="AA89" s="13">
-        <v>27898817</v>
+        <v>36161443</v>
       </c>
       <c r="AB89" s="13">
-        <v>39673996</v>
+        <v>39375731</v>
       </c>
       <c r="AC89" s="13">
-        <v>36161443</v>
+        <v>44296496</v>
       </c>
       <c r="AD89" s="13">
-        <v>39375731</v>
+        <v>57189024</v>
       </c>
       <c r="AE89" s="13">
-        <v>44296496</v>
+        <v>41052500</v>
       </c>
       <c r="AF89" s="13">
-        <v>57189024</v>
+        <v>57201661</v>
       </c>
       <c r="AG89" s="13">
-        <v>41052500</v>
+        <v>102688699</v>
       </c>
       <c r="AH89" s="13">
-        <v>57201661</v>
+        <v>60285408</v>
       </c>
       <c r="AI89" s="13">
-        <v>102688699</v>
+        <v>66283898</v>
       </c>
       <c r="AJ89" s="13">
-        <v>60285408</v>
+        <v>59498934</v>
       </c>
       <c r="AK89" s="13">
-        <v>66283898</v>
+        <v>59498934</v>
       </c>
       <c r="AL89" s="13">
-        <v>59498934</v>
+        <v>62465492</v>
       </c>
       <c r="AM89" s="13">
-        <v>59498934</v>
+        <v>56435556</v>
       </c>
       <c r="AN89" s="13">
-        <v>62465492</v>
+        <v>41895881</v>
       </c>
       <c r="AO89" s="13">
-        <v>56435556</v>
+        <v>68285507</v>
       </c>
       <c r="AP89" s="13">
-        <v>41895881</v>
+        <v>59919847</v>
       </c>
       <c r="AQ89" s="13">
-        <v>68285507</v>
+        <v>45536634</v>
       </c>
       <c r="AR89" s="13">
-        <v>59919847</v>
+        <v>95409178</v>
       </c>
       <c r="AS89" s="13">
-        <v>45536634</v>
+        <v>75903865</v>
       </c>
       <c r="AT89" s="13">
-        <v>95409178</v>
+        <v>65103792</v>
       </c>
       <c r="AU89" s="13">
-        <v>75903865</v>
+        <v>57600698</v>
       </c>
       <c r="AV89" s="13">
-        <v>65103792</v>
+        <v>57596649</v>
       </c>
       <c r="AW89" s="13">
-        <v>57600698</v>
+        <v>122587629</v>
       </c>
       <c r="AX89" s="13">
-        <v>57596649</v>
+        <v>107769231</v>
       </c>
       <c r="AY89" s="13">
-        <v>122587629</v>
+        <v>210529124</v>
       </c>
       <c r="AZ89" s="13">
-        <v>107769231</v>
+        <v>53008772</v>
       </c>
       <c r="BA89" s="13">
-        <v>205958621</v>
+        <v>74617037</v>
       </c>
       <c r="BB89" s="13">
-        <v>53008772</v>
+        <v>110421130</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11653,26 +11653,26 @@
       <c r="AU90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW90" s="11" t="s">
-        <v>58</v>
+      <c r="AV90" s="11">
+        <v>1900964</v>
+      </c>
+      <c r="AW90" s="11">
+        <v>2786740</v>
       </c>
       <c r="AX90" s="11">
-        <v>1900964</v>
+        <v>2632527</v>
       </c>
       <c r="AY90" s="11">
-        <v>2792896</v>
+        <v>6275403</v>
       </c>
       <c r="AZ90" s="11">
-        <v>2703054</v>
+        <v>2716563</v>
       </c>
       <c r="BA90" s="11">
-        <v>6269698</v>
+        <v>2570274</v>
       </c>
       <c r="BB90" s="11">
-        <v>2716563</v>
+        <v>3262594</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11824,14 +11824,14 @@
       <c r="AF92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG92" s="11" t="s">
-        <v>58</v>
+      <c r="AG92" s="11">
+        <v>3180833</v>
       </c>
       <c r="AH92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI92" s="11">
-        <v>3180833</v>
+      <c r="AI92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ92" s="11" t="s">
         <v>58</v>
@@ -11962,14 +11962,14 @@
       <c r="Y93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="13" t="s">
-        <v>58</v>
+      <c r="Z93" s="13">
+        <v>3100108</v>
       </c>
       <c r="AA93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB93" s="13">
-        <v>3100108</v>
+      <c r="AB93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC93" s="13" t="s">
         <v>58</v>
@@ -11983,56 +11983,56 @@
       <c r="AF93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG93" s="13" t="s">
-        <v>58</v>
+      <c r="AG93" s="13">
+        <v>5663522</v>
       </c>
       <c r="AH93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AI93" s="13">
-        <v>5663522</v>
+        <v>2423833</v>
       </c>
       <c r="AJ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK93" s="13">
-        <v>2423833</v>
+      <c r="AK93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM93" s="13" t="s">
-        <v>58</v>
+      <c r="AM93" s="13">
+        <v>1407000</v>
       </c>
       <c r="AN93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO93" s="13">
-        <v>1407000</v>
+      <c r="AO93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR93" s="13" t="s">
-        <v>58</v>
+      <c r="AQ93" s="13">
+        <v>1830300</v>
+      </c>
+      <c r="AR93" s="13">
+        <v>2278000</v>
       </c>
       <c r="AS93" s="13">
-        <v>1830300</v>
-      </c>
-      <c r="AT93" s="13">
-        <v>2278000</v>
+        <v>3555833</v>
+      </c>
+      <c r="AT93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU93" s="13">
-        <v>3555833</v>
+        <v>1250000</v>
       </c>
       <c r="AV93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW93" s="13">
-        <v>1250000</v>
+      <c r="AW93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX93" s="13" t="s">
         <v>58</v>
@@ -12121,14 +12121,14 @@
       <c r="Y94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="11" t="s">
-        <v>58</v>
+      <c r="Z94" s="11">
+        <v>30954023</v>
       </c>
       <c r="AA94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB94" s="11">
-        <v>30954023</v>
+      <c r="AB94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC94" s="11" t="s">
         <v>58</v>
@@ -12148,14 +12148,14 @@
       <c r="AH94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI94" s="11" t="s">
-        <v>58</v>
+      <c r="AI94" s="11">
+        <v>28976190</v>
       </c>
       <c r="AJ94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK94" s="11">
-        <v>28976190</v>
+      <c r="AK94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL94" s="11" t="s">
         <v>58</v>
@@ -12172,14 +12172,14 @@
       <c r="AP94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ94" s="11" t="s">
-        <v>58</v>
+      <c r="AQ94" s="11">
+        <v>50160000</v>
       </c>
       <c r="AR94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS94" s="11">
-        <v>50160000</v>
+      <c r="AS94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
@@ -12196,17 +12196,17 @@
       <c r="AX94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ94" s="11" t="s">
-        <v>58</v>
+      <c r="AY94" s="11">
+        <v>51383333</v>
+      </c>
+      <c r="AZ94" s="11">
+        <v>41000000</v>
       </c>
       <c r="BA94" s="11">
-        <v>51383333</v>
+        <v>50000000</v>
       </c>
       <c r="BB94" s="11">
-        <v>41000000</v>
+        <v>111840000</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12349,23 +12349,23 @@
       <c r="AV95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY95" s="13" t="s">
-        <v>58</v>
+      <c r="AW95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="13">
+        <v>3234749</v>
+      </c>
+      <c r="AY95" s="13">
+        <v>689091</v>
       </c>
       <c r="AZ95" s="13">
-        <v>3234749</v>
-      </c>
-      <c r="BA95" s="13">
-        <v>689091</v>
+        <v>2442857</v>
+      </c>
+      <c r="BA95" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB95" s="13">
-        <v>2442857</v>
+        <v>1726533</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -12520,11 +12520,11 @@
       <c r="AG97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI97" s="11" t="s">
-        <v>58</v>
+      <c r="AH97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="11">
+        <v>0</v>
       </c>
       <c r="AJ97" s="11">
         <v>0</v>
@@ -12556,11 +12556,11 @@
       <c r="AS97" s="11">
         <v>0</v>
       </c>
-      <c r="AT97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU97" s="11">
-        <v>0</v>
+      <c r="AT97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV97" s="11" t="s">
         <v>58</v>

--- a/database/industries/darou/desobhan/product/monthly_seprated.xlsx
+++ b/database/industries/darou/desobhan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C75B361-B3AD-4026-A8C2-B7388A623D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D35FB-C220-4393-A2EE-83ABA71C285C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دسبحان-سبحان دارو</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -790,12 +790,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -850,7 +850,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1019,7 +1019,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1400,7 +1400,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1519,104 +1519,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>11800</v>
+      </c>
+      <c r="X11" s="11">
+        <v>859</v>
       </c>
       <c r="Y11" s="11">
-        <v>11800</v>
+        <v>7792</v>
       </c>
       <c r="Z11" s="11">
-        <v>859</v>
+        <v>11158</v>
       </c>
       <c r="AA11" s="11">
-        <v>7792</v>
+        <v>3107</v>
       </c>
       <c r="AB11" s="11">
-        <v>11158</v>
+        <v>11045</v>
       </c>
       <c r="AC11" s="11">
-        <v>3107</v>
+        <v>3258</v>
       </c>
       <c r="AD11" s="11">
-        <v>11045</v>
+        <v>9632</v>
       </c>
       <c r="AE11" s="11">
-        <v>3258</v>
+        <v>11333</v>
       </c>
       <c r="AF11" s="11">
-        <v>9632</v>
+        <v>1331</v>
       </c>
       <c r="AG11" s="11">
-        <v>11333</v>
+        <v>10505</v>
       </c>
       <c r="AH11" s="11">
-        <v>1331</v>
+        <v>12587</v>
       </c>
       <c r="AI11" s="11">
-        <v>10505</v>
+        <v>3124</v>
       </c>
       <c r="AJ11" s="11">
-        <v>12587</v>
+        <v>15087</v>
       </c>
       <c r="AK11" s="11">
-        <v>3124</v>
+        <v>19050</v>
       </c>
       <c r="AL11" s="11">
-        <v>15087</v>
+        <v>16463</v>
       </c>
       <c r="AM11" s="11">
-        <v>19050</v>
+        <v>16389</v>
       </c>
       <c r="AN11" s="11">
-        <v>16463</v>
+        <v>6933</v>
       </c>
       <c r="AO11" s="11">
-        <v>16389</v>
+        <v>20758</v>
       </c>
       <c r="AP11" s="11">
-        <v>6933</v>
+        <v>12736</v>
       </c>
       <c r="AQ11" s="11">
-        <v>20758</v>
+        <v>5007</v>
       </c>
       <c r="AR11" s="11">
-        <v>12736</v>
+        <v>11391</v>
       </c>
       <c r="AS11" s="11">
-        <v>5007</v>
+        <v>14129</v>
       </c>
       <c r="AT11" s="11">
-        <v>9924</v>
+        <v>14506</v>
       </c>
       <c r="AU11" s="11">
-        <v>14129</v>
+        <v>19263</v>
       </c>
       <c r="AV11" s="11">
-        <v>14506</v>
+        <v>10507</v>
       </c>
       <c r="AW11" s="11">
-        <v>19263</v>
+        <v>6731</v>
       </c>
       <c r="AX11" s="11">
-        <v>10507</v>
+        <v>13171</v>
       </c>
       <c r="AY11" s="11">
-        <v>6731</v>
+        <v>2030</v>
       </c>
       <c r="AZ11" s="11">
-        <v>13171</v>
+        <v>14335</v>
       </c>
       <c r="BA11" s="11">
-        <v>2030</v>
+        <v>12032</v>
       </c>
       <c r="BB11" s="11">
-        <v>14335</v>
+        <v>2659</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1678,81 +1678,81 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>252168</v>
+      </c>
+      <c r="X12" s="13">
+        <v>284276</v>
       </c>
       <c r="Y12" s="13">
-        <v>252168</v>
+        <v>328679</v>
       </c>
       <c r="Z12" s="13">
-        <v>284276</v>
+        <v>220255</v>
       </c>
       <c r="AA12" s="13">
-        <v>328679</v>
+        <v>318170</v>
       </c>
       <c r="AB12" s="13">
-        <v>220255</v>
+        <v>340943</v>
       </c>
       <c r="AC12" s="13">
-        <v>318170</v>
+        <v>325353</v>
       </c>
       <c r="AD12" s="13">
-        <v>340943</v>
+        <v>275345</v>
       </c>
       <c r="AE12" s="13">
-        <v>325353</v>
+        <v>318395</v>
       </c>
       <c r="AF12" s="13">
-        <v>275345</v>
+        <v>236035</v>
       </c>
       <c r="AG12" s="13">
-        <v>318395</v>
+        <v>335898</v>
       </c>
       <c r="AH12" s="13">
-        <v>236035</v>
+        <v>257870</v>
       </c>
       <c r="AI12" s="13">
-        <v>335898</v>
+        <v>283228</v>
       </c>
       <c r="AJ12" s="13">
-        <v>257870</v>
+        <v>202727</v>
       </c>
       <c r="AK12" s="13">
-        <v>283228</v>
+        <v>333981</v>
       </c>
       <c r="AL12" s="13">
-        <v>202727</v>
+        <v>344551</v>
       </c>
       <c r="AM12" s="13">
-        <v>333981</v>
+        <v>284301</v>
       </c>
       <c r="AN12" s="13">
-        <v>344551</v>
+        <v>271738</v>
       </c>
       <c r="AO12" s="13">
-        <v>284301</v>
+        <v>292959</v>
       </c>
       <c r="AP12" s="13">
-        <v>271738</v>
+        <v>296910</v>
       </c>
       <c r="AQ12" s="13">
-        <v>292959</v>
+        <v>258716</v>
       </c>
       <c r="AR12" s="13">
-        <v>296910</v>
+        <v>223022</v>
       </c>
       <c r="AS12" s="13">
-        <v>258716</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>197954</v>
-      </c>
-      <c r="AU12" s="13">
         <v>339733</v>
       </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1837,104 +1837,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>119</v>
+      </c>
+      <c r="X13" s="11">
+        <v>59</v>
       </c>
       <c r="Y13" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z13" s="11">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AA13" s="11">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="AB13" s="11">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AC13" s="11">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="AD13" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="AE13" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF13" s="11">
+        <v>48</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>80</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>102</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>144</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>157</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>132</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>104</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>116</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>26</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>146</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>118</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="11">
         <v>98</v>
       </c>
-      <c r="AG13" s="11">
-        <v>20</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>48</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>87</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>80</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>102</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>144</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>157</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>132</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>104</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>26</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>146</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>118</v>
-      </c>
       <c r="AW13" s="11">
         <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AZ13" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -1996,104 +1996,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>995</v>
+      </c>
+      <c r="X14" s="13">
+        <v>800</v>
       </c>
       <c r="Y14" s="13">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="Z14" s="13">
-        <v>800</v>
+        <v>634</v>
       </c>
       <c r="AA14" s="13">
-        <v>955</v>
+        <v>709</v>
       </c>
       <c r="AB14" s="13">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="AC14" s="13">
-        <v>709</v>
+        <v>821</v>
       </c>
       <c r="AD14" s="13">
-        <v>975</v>
+        <v>851</v>
       </c>
       <c r="AE14" s="13">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="AF14" s="13">
-        <v>851</v>
+        <v>538</v>
       </c>
       <c r="AG14" s="13">
-        <v>501</v>
+        <v>885</v>
       </c>
       <c r="AH14" s="13">
-        <v>538</v>
+        <v>928</v>
       </c>
       <c r="AI14" s="13">
-        <v>885</v>
+        <v>907</v>
       </c>
       <c r="AJ14" s="13">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AK14" s="13">
-        <v>907</v>
+        <v>562</v>
       </c>
       <c r="AL14" s="13">
-        <v>682</v>
+        <v>923</v>
       </c>
       <c r="AM14" s="13">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="AN14" s="13">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="AO14" s="13">
-        <v>745</v>
+        <v>699</v>
       </c>
       <c r="AP14" s="13">
-        <v>850</v>
+        <v>1049</v>
       </c>
       <c r="AQ14" s="13">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AR14" s="13">
-        <v>1049</v>
+        <v>23383</v>
       </c>
       <c r="AS14" s="13">
-        <v>700</v>
+        <v>942</v>
       </c>
       <c r="AT14" s="13">
-        <v>601</v>
+        <v>1033</v>
       </c>
       <c r="AU14" s="13">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="AV14" s="13">
-        <v>1033</v>
+        <v>642</v>
       </c>
       <c r="AW14" s="13">
+        <v>278</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>892</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>520</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>1342</v>
+      </c>
+      <c r="BA14" s="13">
         <v>1032</v>
       </c>
-      <c r="AX14" s="13">
-        <v>822</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>98</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>892</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>520</v>
-      </c>
       <c r="BB14" s="13">
-        <v>1342</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
@@ -2224,35 +2224,35 @@
       <c r="AS15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
+      <c r="AT15" s="11">
+        <v>340407</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>310411</v>
       </c>
       <c r="AV15" s="11">
-        <v>340407</v>
+        <v>284342</v>
       </c>
       <c r="AW15" s="11">
-        <v>310411</v>
+        <v>234533</v>
       </c>
       <c r="AX15" s="11">
-        <v>271838</v>
+        <v>403536</v>
       </c>
       <c r="AY15" s="11">
-        <v>234533</v>
+        <v>401364</v>
       </c>
       <c r="AZ15" s="11">
-        <v>403536</v>
+        <v>353577</v>
       </c>
       <c r="BA15" s="11">
-        <v>401364</v>
+        <v>370149</v>
       </c>
       <c r="BB15" s="11">
-        <v>353577</v>
+        <v>397945</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>65</v>
       </c>
@@ -2313,103 +2313,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>0</v>
+        <v>265082</v>
       </c>
       <c r="X16" s="15">
-        <v>0</v>
+        <v>285994</v>
       </c>
       <c r="Y16" s="15">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="Z16" s="15">
-        <v>285994</v>
+        <v>232116</v>
       </c>
       <c r="AA16" s="15">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AB16" s="15">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AC16" s="15">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AD16" s="15">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AE16" s="15">
-        <v>329456</v>
+        <v>330249</v>
       </c>
       <c r="AF16" s="15">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AG16" s="15">
-        <v>330249</v>
+        <v>347375</v>
       </c>
       <c r="AH16" s="15">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AI16" s="15">
-        <v>347375</v>
+        <v>287339</v>
       </c>
       <c r="AJ16" s="15">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AK16" s="15">
-        <v>287339</v>
+        <v>353737</v>
       </c>
       <c r="AL16" s="15">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AM16" s="15">
-        <v>353737</v>
+        <v>301567</v>
       </c>
       <c r="AN16" s="15">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AO16" s="15">
-        <v>301567</v>
+        <v>314441</v>
       </c>
       <c r="AP16" s="15">
-        <v>279611</v>
+        <v>310799</v>
       </c>
       <c r="AQ16" s="15">
-        <v>314441</v>
+        <v>264539</v>
       </c>
       <c r="AR16" s="15">
-        <v>310799</v>
+        <v>257822</v>
       </c>
       <c r="AS16" s="15">
-        <v>264539</v>
+        <v>354950</v>
       </c>
       <c r="AT16" s="15">
-        <v>208505</v>
+        <v>356064</v>
       </c>
       <c r="AU16" s="15">
-        <v>354950</v>
+        <v>330706</v>
       </c>
       <c r="AV16" s="15">
-        <v>356064</v>
+        <v>295589</v>
       </c>
       <c r="AW16" s="15">
-        <v>330706</v>
+        <v>241542</v>
       </c>
       <c r="AX16" s="15">
-        <v>283226</v>
+        <v>417644</v>
       </c>
       <c r="AY16" s="15">
-        <v>241362</v>
+        <v>403927</v>
       </c>
       <c r="AZ16" s="15">
-        <v>417644</v>
+        <v>369254</v>
       </c>
       <c r="BA16" s="15">
-        <v>403927</v>
+        <v>383213</v>
       </c>
       <c r="BB16" s="15">
-        <v>369254</v>
+        <v>401389</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>66</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
@@ -2552,20 +2552,20 @@
       <c r="AD18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>58</v>
+      <c r="AE18" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <v>1200</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
@@ -2576,11 +2576,11 @@
       <c r="AL18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>58</v>
+      <c r="AM18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>0</v>
       </c>
       <c r="AO18" s="11">
         <v>0</v>
@@ -2588,11 +2588,11 @@
       <c r="AP18" s="11">
         <v>0</v>
       </c>
-      <c r="AQ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="11">
-        <v>0</v>
+      <c r="AQ18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS18" s="11" t="s">
         <v>58</v>
@@ -2625,7 +2625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
@@ -2690,14 +2690,14 @@
       <c r="W19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y19" s="13" t="s">
-        <v>58</v>
+      <c r="X19" s="13">
+        <v>158113</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0</v>
       </c>
       <c r="Z19" s="13">
-        <v>158113</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -2712,55 +2712,55 @@
         <v>0</v>
       </c>
       <c r="AE19" s="13">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AF19" s="13">
         <v>0</v>
       </c>
       <c r="AG19" s="13">
-        <v>3180</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
         <v>6000</v>
       </c>
+      <c r="AH19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="13" t="s">
-        <v>58</v>
+      <c r="AK19" s="13">
+        <v>1000</v>
       </c>
       <c r="AL19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AR19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS19" s="13">
         <v>1000</v>
       </c>
-      <c r="AN19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="13">
-        <v>10000</v>
-      </c>
-      <c r="AR19" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AS19" s="13">
-        <v>6000</v>
-      </c>
-      <c r="AT19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="13">
-        <v>1000</v>
+      <c r="AT19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV19" s="13" t="s">
         <v>58</v>
@@ -2784,7 +2784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
@@ -2873,14 +2873,14 @@
       <c r="AE20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="11" t="s">
-        <v>58</v>
+      <c r="AF20" s="11">
+        <v>0</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>58</v>
@@ -2897,17 +2897,17 @@
       <c r="AM20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="11">
-        <v>0</v>
+      <c r="AN20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR20" s="11" t="s">
         <v>58</v>
@@ -2943,7 +2943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>62</v>
       </c>
@@ -3008,14 +3008,14 @@
       <c r="W21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>58</v>
+      <c r="X21" s="13">
+        <v>87</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>0</v>
       </c>
       <c r="Z21" s="13">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -3036,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="AG21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
         <v>210</v>
       </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
@@ -3053,23 +3053,23 @@
       <c r="AL21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
+      <c r="AM21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>0</v>
       </c>
       <c r="AO21" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP21" s="13">
         <v>0</v>
       </c>
       <c r="AQ21" s="13">
-        <v>50</v>
-      </c>
-      <c r="AR21" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS21" s="13">
         <v>0</v>
@@ -3084,25 +3084,25 @@
         <v>0</v>
       </c>
       <c r="AW21" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AX21" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AY21" s="13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="AZ21" s="13">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="BA21" s="13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>64</v>
       </c>
@@ -3233,35 +3233,35 @@
       <c r="AS22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>58</v>
+      <c r="AT22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>0</v>
       </c>
       <c r="AV22" s="11">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AW22" s="11">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AX22" s="11">
-        <v>14999</v>
+        <v>350</v>
       </c>
       <c r="AY22" s="11">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="11">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="BA22" s="11">
         <v>0</v>
       </c>
       <c r="BB22" s="11">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="X23" s="15">
-        <v>0</v>
+        <v>158200</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
       </c>
       <c r="Z23" s="15">
-        <v>158200</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -3346,79 +3346,79 @@
         <v>0</v>
       </c>
       <c r="AE23" s="15">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="AF23" s="15">
         <v>0</v>
       </c>
       <c r="AG23" s="15">
-        <v>4380</v>
+        <v>6210</v>
       </c>
       <c r="AH23" s="15">
         <v>0</v>
       </c>
       <c r="AI23" s="15">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="15">
         <v>0</v>
       </c>
       <c r="AK23" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" s="15">
         <v>0</v>
       </c>
       <c r="AM23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>10050</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>25000</v>
+      </c>
+      <c r="AQ23" s="15">
+        <v>6000</v>
+      </c>
+      <c r="AR23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="15">
         <v>1000</v>
       </c>
-      <c r="AN23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="15">
-        <v>10050</v>
-      </c>
-      <c r="AR23" s="15">
-        <v>25000</v>
-      </c>
-      <c r="AS23" s="15">
-        <v>6000</v>
-      </c>
       <c r="AT23" s="15">
         <v>0</v>
       </c>
       <c r="AU23" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="15">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AW23" s="15">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="AX23" s="15">
-        <v>14999</v>
+        <v>650</v>
       </c>
       <c r="AY23" s="15">
-        <v>11180</v>
+        <v>300</v>
       </c>
       <c r="AZ23" s="15">
-        <v>650</v>
+        <v>15025</v>
       </c>
       <c r="BA23" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="15">
-        <v>15025</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>69</v>
       </c>
@@ -3564,14 +3564,14 @@
       <c r="AE25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>58</v>
+      <c r="AF25" s="11">
+        <v>0</v>
       </c>
       <c r="AG25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>58</v>
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>71</v>
       </c>
@@ -3694,11 +3694,11 @@
       <c r="V26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="15" t="s">
-        <v>58</v>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+      <c r="X26" s="15">
+        <v>0</v>
       </c>
       <c r="Y26" s="15">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>72</v>
       </c>
@@ -3852,103 +3852,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="17">
-        <v>0</v>
+        <v>265082</v>
       </c>
       <c r="X27" s="17">
-        <v>0</v>
+        <v>444194</v>
       </c>
       <c r="Y27" s="17">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="Z27" s="17">
-        <v>444194</v>
+        <v>232116</v>
       </c>
       <c r="AA27" s="17">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AB27" s="17">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AC27" s="17">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AD27" s="17">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AE27" s="17">
-        <v>329456</v>
+        <v>334629</v>
       </c>
       <c r="AF27" s="17">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AG27" s="17">
-        <v>334629</v>
+        <v>353585</v>
       </c>
       <c r="AH27" s="17">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AI27" s="17">
-        <v>353585</v>
+        <v>287339</v>
       </c>
       <c r="AJ27" s="17">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AK27" s="17">
-        <v>287339</v>
+        <v>354737</v>
       </c>
       <c r="AL27" s="17">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AM27" s="17">
-        <v>354737</v>
+        <v>301567</v>
       </c>
       <c r="AN27" s="17">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AO27" s="17">
-        <v>301567</v>
+        <v>324491</v>
       </c>
       <c r="AP27" s="17">
-        <v>279611</v>
+        <v>335799</v>
       </c>
       <c r="AQ27" s="17">
-        <v>324491</v>
+        <v>270539</v>
       </c>
       <c r="AR27" s="17">
-        <v>335799</v>
+        <v>257822</v>
       </c>
       <c r="AS27" s="17">
-        <v>270539</v>
+        <v>355950</v>
       </c>
       <c r="AT27" s="17">
-        <v>208505</v>
+        <v>356064</v>
       </c>
       <c r="AU27" s="17">
-        <v>355950</v>
+        <v>330706</v>
       </c>
       <c r="AV27" s="17">
-        <v>356064</v>
+        <v>310588</v>
       </c>
       <c r="AW27" s="17">
-        <v>330706</v>
+        <v>252722</v>
       </c>
       <c r="AX27" s="17">
-        <v>298225</v>
+        <v>418294</v>
       </c>
       <c r="AY27" s="17">
-        <v>252542</v>
+        <v>404227</v>
       </c>
       <c r="AZ27" s="17">
-        <v>418294</v>
+        <v>384279</v>
       </c>
       <c r="BA27" s="17">
-        <v>404227</v>
+        <v>383213</v>
       </c>
       <c r="BB27" s="17">
-        <v>384279</v>
+        <v>401389</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4003,7 +4003,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4058,7 +4058,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4113,7 +4113,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>73</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4325,7 +4325,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>74</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4444,104 +4444,104 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>12375</v>
+      </c>
+      <c r="X34" s="11">
+        <v>3506</v>
       </c>
       <c r="Y34" s="11">
-        <v>12375</v>
+        <v>8122</v>
       </c>
       <c r="Z34" s="11">
-        <v>3506</v>
+        <v>10724</v>
       </c>
       <c r="AA34" s="11">
-        <v>8122</v>
+        <v>2180</v>
       </c>
       <c r="AB34" s="11">
-        <v>10724</v>
+        <v>11142</v>
       </c>
       <c r="AC34" s="11">
-        <v>2180</v>
+        <v>2937</v>
       </c>
       <c r="AD34" s="11">
-        <v>11142</v>
+        <v>9547</v>
       </c>
       <c r="AE34" s="11">
-        <v>2937</v>
+        <v>11448</v>
       </c>
       <c r="AF34" s="11">
-        <v>9547</v>
+        <v>1331</v>
       </c>
       <c r="AG34" s="11">
-        <v>11448</v>
+        <v>10411</v>
       </c>
       <c r="AH34" s="11">
-        <v>1331</v>
+        <v>10400</v>
       </c>
       <c r="AI34" s="11">
-        <v>10411</v>
+        <v>10400</v>
       </c>
       <c r="AJ34" s="11">
-        <v>10400</v>
+        <v>15100</v>
       </c>
       <c r="AK34" s="11">
-        <v>10400</v>
+        <v>20558</v>
       </c>
       <c r="AL34" s="11">
-        <v>15100</v>
+        <v>17286</v>
       </c>
       <c r="AM34" s="11">
-        <v>20558</v>
+        <v>14121</v>
       </c>
       <c r="AN34" s="11">
-        <v>17286</v>
+        <v>6933</v>
       </c>
       <c r="AO34" s="11">
-        <v>14121</v>
+        <v>16008</v>
       </c>
       <c r="AP34" s="11">
-        <v>6933</v>
+        <v>16339</v>
       </c>
       <c r="AQ34" s="11">
-        <v>16008</v>
+        <v>5284</v>
       </c>
       <c r="AR34" s="11">
-        <v>16339</v>
+        <v>9425</v>
       </c>
       <c r="AS34" s="11">
-        <v>5284</v>
+        <v>14611</v>
       </c>
       <c r="AT34" s="11">
-        <v>9425</v>
+        <v>10877</v>
       </c>
       <c r="AU34" s="11">
-        <v>14611</v>
+        <v>6751</v>
       </c>
       <c r="AV34" s="11">
-        <v>10877</v>
+        <v>24094</v>
       </c>
       <c r="AW34" s="11">
-        <v>6751</v>
+        <v>6455</v>
       </c>
       <c r="AX34" s="11">
-        <v>24094</v>
+        <v>10072</v>
       </c>
       <c r="AY34" s="11">
-        <v>6455</v>
+        <v>7454</v>
       </c>
       <c r="AZ34" s="11">
-        <v>10072</v>
+        <v>11236</v>
       </c>
       <c r="BA34" s="11">
-        <v>7454</v>
+        <v>7922</v>
       </c>
       <c r="BB34" s="11">
-        <v>11236</v>
+        <v>4228</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4603,81 +4603,81 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>259464</v>
+      </c>
+      <c r="X35" s="13">
+        <v>274662</v>
       </c>
       <c r="Y35" s="13">
-        <v>259464</v>
+        <v>345930</v>
       </c>
       <c r="Z35" s="13">
-        <v>274662</v>
+        <v>226218</v>
       </c>
       <c r="AA35" s="13">
-        <v>345930</v>
+        <v>319178</v>
       </c>
       <c r="AB35" s="13">
-        <v>226218</v>
+        <v>330991</v>
       </c>
       <c r="AC35" s="13">
-        <v>319178</v>
+        <v>324522</v>
       </c>
       <c r="AD35" s="13">
-        <v>330991</v>
+        <v>283623</v>
       </c>
       <c r="AE35" s="13">
-        <v>324522</v>
+        <v>317528</v>
       </c>
       <c r="AF35" s="13">
-        <v>283623</v>
+        <v>213982</v>
       </c>
       <c r="AG35" s="13">
-        <v>317528</v>
+        <v>366952</v>
       </c>
       <c r="AH35" s="13">
-        <v>213982</v>
+        <v>328574</v>
       </c>
       <c r="AI35" s="13">
-        <v>366952</v>
+        <v>296840</v>
       </c>
       <c r="AJ35" s="13">
-        <v>328574</v>
+        <v>205151</v>
       </c>
       <c r="AK35" s="13">
-        <v>296840</v>
+        <v>363175</v>
       </c>
       <c r="AL35" s="13">
-        <v>205151</v>
+        <v>350725</v>
       </c>
       <c r="AM35" s="13">
-        <v>363175</v>
+        <v>262978</v>
       </c>
       <c r="AN35" s="13">
-        <v>350725</v>
+        <v>265830</v>
       </c>
       <c r="AO35" s="13">
-        <v>262978</v>
+        <v>264767</v>
       </c>
       <c r="AP35" s="13">
-        <v>265830</v>
+        <v>259009</v>
       </c>
       <c r="AQ35" s="13">
-        <v>264767</v>
+        <v>300228</v>
       </c>
       <c r="AR35" s="13">
-        <v>259009</v>
+        <v>239273</v>
       </c>
       <c r="AS35" s="13">
-        <v>300228</v>
-      </c>
-      <c r="AT35" s="13">
-        <v>239273</v>
-      </c>
-      <c r="AU35" s="13">
         <v>251795</v>
       </c>
+      <c r="AT35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU35" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV35" s="13" t="s">
         <v>58</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4762,104 +4762,104 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>107</v>
+      </c>
+      <c r="X36" s="11">
+        <v>92</v>
       </c>
       <c r="Y36" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Z36" s="11">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="AA36" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AB36" s="11">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC36" s="11">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="AD36" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AE36" s="11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AF36" s="11">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AG36" s="11">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AH36" s="11">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AI36" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AJ36" s="11">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK36" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AL36" s="11">
+        <v>159</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>124</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>102</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>78</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>77</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>65</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>53</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>237</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>2363</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>36</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>45</v>
+      </c>
+      <c r="AY36" s="11">
+        <v>13</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA36" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="11">
         <v>101</v>
       </c>
-      <c r="AM36" s="11">
-        <v>150</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>159</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>124</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>102</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>78</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>77</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>65</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>53</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>237</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>23</v>
-      </c>
-      <c r="AY36" s="11">
-        <v>36</v>
-      </c>
-      <c r="AZ36" s="11">
-        <v>45</v>
-      </c>
-      <c r="BA36" s="11">
-        <v>13</v>
-      </c>
-      <c r="BB36" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>62</v>
       </c>
@@ -4921,104 +4921,104 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>761</v>
+      </c>
+      <c r="X37" s="13">
+        <v>1046</v>
       </c>
       <c r="Y37" s="13">
-        <v>761</v>
+        <v>1053</v>
       </c>
       <c r="Z37" s="13">
+        <v>684</v>
+      </c>
+      <c r="AA37" s="13">
+        <v>742</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>984</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>800</v>
+      </c>
+      <c r="AD37" s="13">
+        <v>843</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>469</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>466</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>944</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>938</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>938</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>681</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>675</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>874</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>690</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>786</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>505</v>
+      </c>
+      <c r="AP37" s="13">
         <v>1046</v>
       </c>
-      <c r="AA37" s="13">
-        <v>1053</v>
-      </c>
-      <c r="AB37" s="13">
-        <v>684</v>
-      </c>
-      <c r="AC37" s="13">
-        <v>742</v>
-      </c>
-      <c r="AD37" s="13">
-        <v>984</v>
-      </c>
-      <c r="AE37" s="13">
-        <v>800</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>843</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>469</v>
-      </c>
-      <c r="AH37" s="13">
-        <v>466</v>
-      </c>
-      <c r="AI37" s="13">
-        <v>944</v>
-      </c>
-      <c r="AJ37" s="13">
-        <v>938</v>
-      </c>
-      <c r="AK37" s="13">
-        <v>938</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>681</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>675</v>
-      </c>
-      <c r="AN37" s="13">
-        <v>874</v>
-      </c>
-      <c r="AO37" s="13">
-        <v>690</v>
-      </c>
-      <c r="AP37" s="13">
-        <v>786</v>
-      </c>
       <c r="AQ37" s="13">
-        <v>505</v>
+        <v>1009</v>
       </c>
       <c r="AR37" s="13">
-        <v>1046</v>
+        <v>501</v>
       </c>
       <c r="AS37" s="13">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="AT37" s="13">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="AU37" s="13">
-        <v>859</v>
+        <v>485</v>
       </c>
       <c r="AV37" s="13">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AW37" s="13">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="AX37" s="13">
-        <v>793</v>
+        <v>114</v>
       </c>
       <c r="AY37" s="13">
-        <v>110</v>
+        <v>1350</v>
       </c>
       <c r="AZ37" s="13">
-        <v>114</v>
+        <v>1363</v>
       </c>
       <c r="BA37" s="13">
-        <v>1350</v>
+        <v>1320</v>
       </c>
       <c r="BB37" s="13">
-        <v>1363</v>
+        <v>758</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>64</v>
       </c>
@@ -5149,35 +5149,35 @@
       <c r="AS38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU38" s="11" t="s">
-        <v>58</v>
+      <c r="AT38" s="11">
+        <v>371793</v>
+      </c>
+      <c r="AU38" s="11">
+        <v>271081</v>
       </c>
       <c r="AV38" s="11">
-        <v>371793</v>
+        <v>286049</v>
       </c>
       <c r="AW38" s="11">
-        <v>271081</v>
+        <v>176590</v>
       </c>
       <c r="AX38" s="11">
-        <v>288543</v>
+        <v>425996</v>
       </c>
       <c r="AY38" s="11">
-        <v>173058</v>
+        <v>418527</v>
       </c>
       <c r="AZ38" s="11">
-        <v>425996</v>
+        <v>317840</v>
       </c>
       <c r="BA38" s="11">
-        <v>418527</v>
+        <v>282249</v>
       </c>
       <c r="BB38" s="11">
-        <v>317840</v>
+        <v>328496</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>75</v>
       </c>
@@ -5238,103 +5238,103 @@
         <v>0</v>
       </c>
       <c r="W39" s="15">
-        <v>0</v>
+        <v>272707</v>
       </c>
       <c r="X39" s="15">
-        <v>0</v>
+        <v>279306</v>
       </c>
       <c r="Y39" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="Z39" s="15">
-        <v>279306</v>
+        <v>237693</v>
       </c>
       <c r="AA39" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AB39" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AC39" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AD39" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AE39" s="15">
-        <v>328280</v>
+        <v>329509</v>
       </c>
       <c r="AF39" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AG39" s="15">
-        <v>329509</v>
+        <v>378406</v>
       </c>
       <c r="AH39" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AI39" s="15">
-        <v>378406</v>
+        <v>308240</v>
       </c>
       <c r="AJ39" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AK39" s="15">
-        <v>308240</v>
+        <v>384558</v>
       </c>
       <c r="AL39" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AM39" s="15">
-        <v>384558</v>
+        <v>277913</v>
       </c>
       <c r="AN39" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AO39" s="15">
-        <v>277913</v>
+        <v>281305</v>
       </c>
       <c r="AP39" s="15">
-        <v>273651</v>
+        <v>276472</v>
       </c>
       <c r="AQ39" s="15">
-        <v>281305</v>
+        <v>306598</v>
       </c>
       <c r="AR39" s="15">
-        <v>276472</v>
+        <v>249264</v>
       </c>
       <c r="AS39" s="15">
-        <v>306598</v>
+        <v>267318</v>
       </c>
       <c r="AT39" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AU39" s="15">
-        <v>267318</v>
+        <v>278317</v>
       </c>
       <c r="AV39" s="15">
-        <v>383683</v>
+        <v>313299</v>
       </c>
       <c r="AW39" s="15">
-        <v>278317</v>
+        <v>183371</v>
       </c>
       <c r="AX39" s="15">
-        <v>313453</v>
+        <v>436227</v>
       </c>
       <c r="AY39" s="15">
-        <v>179659</v>
+        <v>427344</v>
       </c>
       <c r="AZ39" s="15">
-        <v>436227</v>
+        <v>330439</v>
       </c>
       <c r="BA39" s="15">
-        <v>427344</v>
+        <v>291491</v>
       </c>
       <c r="BB39" s="15">
-        <v>330439</v>
+        <v>333583</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>76</v>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>56</v>
       </c>
@@ -5477,20 +5477,20 @@
       <c r="AD41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF41" s="11" t="s">
-        <v>58</v>
+      <c r="AE41" s="11">
+        <v>1200</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>0</v>
       </c>
       <c r="AG41" s="11">
-        <v>1200</v>
-      </c>
-      <c r="AH41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>58</v>
@@ -5501,11 +5501,11 @@
       <c r="AL41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>58</v>
+      <c r="AM41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>0</v>
       </c>
       <c r="AO41" s="11">
         <v>0</v>
@@ -5513,11 +5513,11 @@
       <c r="AP41" s="11">
         <v>0</v>
       </c>
-      <c r="AQ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>0</v>
+      <c r="AQ41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS41" s="11" t="s">
         <v>58</v>
@@ -5550,7 +5550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>59</v>
       </c>
@@ -5615,14 +5615,14 @@
       <c r="W42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>58</v>
+      <c r="X42" s="13">
+        <v>15813</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>0</v>
       </c>
       <c r="Z42" s="13">
-        <v>15813</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="13">
         <v>0</v>
@@ -5637,55 +5637,55 @@
         <v>0</v>
       </c>
       <c r="AE42" s="13">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AF42" s="13">
         <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>3180</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="13">
         <v>6000</v>
       </c>
+      <c r="AH42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK42" s="13" t="s">
-        <v>58</v>
+      <c r="AK42" s="13">
+        <v>1000</v>
       </c>
       <c r="AL42" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>10000</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>25000</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>6000</v>
+      </c>
+      <c r="AR42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS42" s="13">
         <v>1000</v>
       </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="13">
-        <v>10000</v>
-      </c>
-      <c r="AR42" s="13">
-        <v>25000</v>
-      </c>
-      <c r="AS42" s="13">
-        <v>6000</v>
-      </c>
-      <c r="AT42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU42" s="13">
-        <v>1000</v>
+      <c r="AT42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV42" s="13" t="s">
         <v>58</v>
@@ -5709,7 +5709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>60</v>
       </c>
@@ -5798,14 +5798,14 @@
       <c r="AE43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF43" s="11" t="s">
-        <v>58</v>
+      <c r="AF43" s="11">
+        <v>0</v>
       </c>
       <c r="AG43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH43" s="11">
-        <v>0</v>
+      <c r="AH43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>58</v>
@@ -5822,17 +5822,17 @@
       <c r="AM43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>0</v>
+      <c r="AN43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR43" s="11" t="s">
         <v>58</v>
@@ -5868,7 +5868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>62</v>
       </c>
@@ -5933,14 +5933,14 @@
       <c r="W44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="X44" s="13">
+        <v>87</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>0</v>
       </c>
       <c r="Z44" s="13">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="13">
         <v>0</v>
@@ -5961,14 +5961,14 @@
         <v>0</v>
       </c>
       <c r="AG44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="13">
         <v>210</v>
       </c>
+      <c r="AH44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ44" s="13" t="s">
         <v>58</v>
       </c>
@@ -5978,23 +5978,23 @@
       <c r="AL44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN44" s="13" t="s">
-        <v>58</v>
+      <c r="AM44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="13">
+        <v>0</v>
       </c>
       <c r="AO44" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP44" s="13">
         <v>0</v>
       </c>
       <c r="AQ44" s="13">
-        <v>50</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS44" s="13">
         <v>0</v>
@@ -6009,25 +6009,25 @@
         <v>0</v>
       </c>
       <c r="AW44" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AX44" s="13">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AY44" s="13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="AZ44" s="13">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="BA44" s="13">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>64</v>
       </c>
@@ -6158,35 +6158,35 @@
       <c r="AS45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU45" s="11" t="s">
-        <v>58</v>
+      <c r="AT45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="11">
+        <v>0</v>
       </c>
       <c r="AV45" s="11">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AW45" s="11">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AX45" s="11">
-        <v>14999</v>
+        <v>350</v>
       </c>
       <c r="AY45" s="11">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="BA45" s="11">
         <v>0</v>
       </c>
       <c r="BB45" s="11">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>77</v>
       </c>
@@ -6250,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="X46" s="15">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="Y46" s="15">
         <v>0</v>
       </c>
       <c r="Z46" s="15">
-        <v>15900</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="15">
         <v>0</v>
@@ -6271,79 +6271,79 @@
         <v>0</v>
       </c>
       <c r="AE46" s="15">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="AF46" s="15">
         <v>0</v>
       </c>
       <c r="AG46" s="15">
-        <v>4380</v>
+        <v>6210</v>
       </c>
       <c r="AH46" s="15">
         <v>0</v>
       </c>
       <c r="AI46" s="15">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="15">
         <v>0</v>
       </c>
       <c r="AK46" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" s="15">
         <v>0</v>
       </c>
       <c r="AM46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="15">
+        <v>10050</v>
+      </c>
+      <c r="AP46" s="15">
+        <v>25000</v>
+      </c>
+      <c r="AQ46" s="15">
+        <v>6000</v>
+      </c>
+      <c r="AR46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="15">
         <v>1000</v>
       </c>
-      <c r="AN46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="15">
-        <v>10050</v>
-      </c>
-      <c r="AR46" s="15">
-        <v>25000</v>
-      </c>
-      <c r="AS46" s="15">
-        <v>6000</v>
-      </c>
       <c r="AT46" s="15">
         <v>0</v>
       </c>
       <c r="AU46" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="15">
-        <v>0</v>
+        <v>14999</v>
       </c>
       <c r="AW46" s="15">
-        <v>0</v>
+        <v>11180</v>
       </c>
       <c r="AX46" s="15">
-        <v>14999</v>
+        <v>650</v>
       </c>
       <c r="AY46" s="15">
-        <v>11180</v>
+        <v>300</v>
       </c>
       <c r="AZ46" s="15">
-        <v>650</v>
+        <v>15025</v>
       </c>
       <c r="BA46" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="15">
-        <v>15025</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>68</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="9"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>69</v>
       </c>
@@ -6489,14 +6489,14 @@
       <c r="AE48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF48" s="11" t="s">
-        <v>58</v>
+      <c r="AF48" s="11">
+        <v>0</v>
       </c>
       <c r="AG48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH48" s="11">
-        <v>0</v>
+      <c r="AH48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="11" t="s">
         <v>58</v>
@@ -6559,7 +6559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>71</v>
       </c>
@@ -6619,11 +6619,11 @@
       <c r="V49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>58</v>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>0</v>
       </c>
       <c r="Y49" s="15">
         <v>0</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>78</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="BA50" s="19"/>
       <c r="BB50" s="19"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>79</v>
       </c>
@@ -6833,11 +6833,11 @@
       <c r="V51" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>58</v>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
       </c>
       <c r="Y51" s="17">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
@@ -6991,103 +6991,103 @@
         <v>0</v>
       </c>
       <c r="W52" s="15">
-        <v>0</v>
+        <v>272707</v>
       </c>
       <c r="X52" s="15">
-        <v>0</v>
+        <v>295206</v>
       </c>
       <c r="Y52" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="Z52" s="15">
-        <v>295206</v>
+        <v>237693</v>
       </c>
       <c r="AA52" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AB52" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AC52" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AD52" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AE52" s="15">
-        <v>328280</v>
+        <v>333889</v>
       </c>
       <c r="AF52" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AG52" s="15">
-        <v>333889</v>
+        <v>384616</v>
       </c>
       <c r="AH52" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AI52" s="15">
-        <v>384616</v>
+        <v>308240</v>
       </c>
       <c r="AJ52" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AK52" s="15">
-        <v>308240</v>
+        <v>385558</v>
       </c>
       <c r="AL52" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AM52" s="15">
-        <v>385558</v>
+        <v>277913</v>
       </c>
       <c r="AN52" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AO52" s="15">
-        <v>277913</v>
+        <v>291355</v>
       </c>
       <c r="AP52" s="15">
-        <v>273651</v>
+        <v>301472</v>
       </c>
       <c r="AQ52" s="15">
-        <v>291355</v>
+        <v>312598</v>
       </c>
       <c r="AR52" s="15">
-        <v>301472</v>
+        <v>249264</v>
       </c>
       <c r="AS52" s="15">
-        <v>312598</v>
+        <v>268318</v>
       </c>
       <c r="AT52" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AU52" s="15">
-        <v>268318</v>
+        <v>278317</v>
       </c>
       <c r="AV52" s="15">
-        <v>383683</v>
+        <v>328298</v>
       </c>
       <c r="AW52" s="15">
-        <v>278317</v>
+        <v>194551</v>
       </c>
       <c r="AX52" s="15">
-        <v>328452</v>
+        <v>436877</v>
       </c>
       <c r="AY52" s="15">
-        <v>190839</v>
+        <v>427644</v>
       </c>
       <c r="AZ52" s="15">
-        <v>436877</v>
+        <v>345464</v>
       </c>
       <c r="BA52" s="15">
-        <v>427644</v>
+        <v>291491</v>
       </c>
       <c r="BB52" s="15">
-        <v>345464</v>
+        <v>333583</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7142,7 +7142,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7197,7 +7197,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7252,7 +7252,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>80</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7464,7 +7464,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
@@ -7521,7 +7521,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7583,104 +7583,104 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>37005</v>
+      </c>
+      <c r="X59" s="11">
+        <v>5457</v>
       </c>
       <c r="Y59" s="11">
-        <v>37005</v>
+        <v>16515</v>
       </c>
       <c r="Z59" s="11">
-        <v>5457</v>
+        <v>39129</v>
       </c>
       <c r="AA59" s="11">
-        <v>16515</v>
+        <v>11941</v>
       </c>
       <c r="AB59" s="11">
-        <v>39129</v>
+        <v>26706</v>
       </c>
       <c r="AC59" s="11">
-        <v>11941</v>
+        <v>2221</v>
       </c>
       <c r="AD59" s="11">
-        <v>26706</v>
+        <v>22884</v>
       </c>
       <c r="AE59" s="11">
-        <v>2221</v>
+        <v>25614</v>
       </c>
       <c r="AF59" s="11">
-        <v>22884</v>
+        <v>8282</v>
       </c>
       <c r="AG59" s="11">
-        <v>25614</v>
+        <v>68285</v>
       </c>
       <c r="AH59" s="11">
-        <v>8282</v>
+        <v>68212</v>
       </c>
       <c r="AI59" s="11">
-        <v>68285</v>
+        <v>68212</v>
       </c>
       <c r="AJ59" s="11">
-        <v>68212</v>
+        <v>103575</v>
       </c>
       <c r="AK59" s="11">
-        <v>68212</v>
+        <v>92534</v>
       </c>
       <c r="AL59" s="11">
-        <v>103575</v>
+        <v>47591</v>
       </c>
       <c r="AM59" s="11">
-        <v>92534</v>
+        <v>72237</v>
       </c>
       <c r="AN59" s="11">
-        <v>47591</v>
+        <v>22570</v>
       </c>
       <c r="AO59" s="11">
-        <v>72237</v>
+        <v>70012</v>
       </c>
       <c r="AP59" s="11">
-        <v>22570</v>
+        <v>63242</v>
       </c>
       <c r="AQ59" s="11">
-        <v>70012</v>
+        <v>24151</v>
       </c>
       <c r="AR59" s="11">
-        <v>63242</v>
+        <v>52613</v>
       </c>
       <c r="AS59" s="11">
-        <v>24151</v>
+        <v>46181</v>
       </c>
       <c r="AT59" s="11">
-        <v>52613</v>
+        <v>37662</v>
       </c>
       <c r="AU59" s="11">
-        <v>46181</v>
+        <v>32597</v>
       </c>
       <c r="AV59" s="11">
-        <v>37662</v>
+        <v>141359</v>
       </c>
       <c r="AW59" s="11">
-        <v>32597</v>
+        <v>54050</v>
       </c>
       <c r="AX59" s="11">
-        <v>141359</v>
+        <v>76864</v>
       </c>
       <c r="AY59" s="11">
-        <v>54050</v>
+        <v>43788</v>
       </c>
       <c r="AZ59" s="11">
-        <v>76864</v>
+        <v>70948</v>
       </c>
       <c r="BA59" s="11">
-        <v>43788</v>
+        <v>43869</v>
       </c>
       <c r="BB59" s="11">
-        <v>70948</v>
+        <v>37974</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7742,81 +7742,81 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>353228</v>
+      </c>
+      <c r="X60" s="13">
+        <v>425148</v>
       </c>
       <c r="Y60" s="13">
-        <v>353228</v>
+        <v>532462</v>
       </c>
       <c r="Z60" s="13">
-        <v>425148</v>
+        <v>404640</v>
       </c>
       <c r="AA60" s="13">
-        <v>532462</v>
+        <v>548260</v>
       </c>
       <c r="AB60" s="13">
-        <v>404640</v>
+        <v>609187</v>
       </c>
       <c r="AC60" s="13">
-        <v>548260</v>
+        <v>537573</v>
       </c>
       <c r="AD60" s="13">
-        <v>609187</v>
+        <v>522007</v>
       </c>
       <c r="AE60" s="13">
-        <v>537573</v>
+        <v>365692</v>
       </c>
       <c r="AF60" s="13">
-        <v>522007</v>
+        <v>275262</v>
       </c>
       <c r="AG60" s="13">
-        <v>365692</v>
+        <v>534469</v>
       </c>
       <c r="AH60" s="13">
-        <v>275262</v>
+        <v>483686</v>
       </c>
       <c r="AI60" s="13">
-        <v>534469</v>
+        <v>463686</v>
       </c>
       <c r="AJ60" s="13">
-        <v>483686</v>
+        <v>334781</v>
       </c>
       <c r="AK60" s="13">
-        <v>463686</v>
+        <v>529186</v>
       </c>
       <c r="AL60" s="13">
-        <v>334781</v>
+        <v>786507</v>
       </c>
       <c r="AM60" s="13">
-        <v>529186</v>
+        <v>576574</v>
       </c>
       <c r="AN60" s="13">
-        <v>786507</v>
+        <v>429011</v>
       </c>
       <c r="AO60" s="13">
-        <v>576574</v>
+        <v>409607</v>
       </c>
       <c r="AP60" s="13">
-        <v>429011</v>
+        <v>349366</v>
       </c>
       <c r="AQ60" s="13">
-        <v>409607</v>
+        <v>483625</v>
       </c>
       <c r="AR60" s="13">
-        <v>349366</v>
+        <v>421014</v>
       </c>
       <c r="AS60" s="13">
-        <v>483625</v>
-      </c>
-      <c r="AT60" s="13">
-        <v>421014</v>
-      </c>
-      <c r="AU60" s="13">
         <v>457702</v>
       </c>
+      <c r="AT60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV60" s="13" t="s">
         <v>58</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7901,104 +7901,104 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>20181</v>
+      </c>
+      <c r="X61" s="11">
+        <v>16628</v>
       </c>
       <c r="Y61" s="11">
-        <v>20181</v>
+        <v>13083</v>
       </c>
       <c r="Z61" s="11">
-        <v>16628</v>
+        <v>9166</v>
       </c>
       <c r="AA61" s="11">
-        <v>13083</v>
+        <v>14008</v>
       </c>
       <c r="AB61" s="11">
-        <v>9166</v>
+        <v>9208</v>
       </c>
       <c r="AC61" s="11">
-        <v>14008</v>
+        <v>1236</v>
       </c>
       <c r="AD61" s="11">
-        <v>9208</v>
+        <v>17009</v>
       </c>
       <c r="AE61" s="11">
-        <v>1236</v>
+        <v>3272</v>
       </c>
       <c r="AF61" s="11">
-        <v>17009</v>
+        <v>6634</v>
       </c>
       <c r="AG61" s="11">
-        <v>3272</v>
+        <v>19912</v>
       </c>
       <c r="AH61" s="11">
-        <v>6634</v>
+        <v>12402</v>
       </c>
       <c r="AI61" s="11">
-        <v>19912</v>
+        <v>12402</v>
       </c>
       <c r="AJ61" s="11">
-        <v>12402</v>
+        <v>20211</v>
       </c>
       <c r="AK61" s="11">
-        <v>12402</v>
+        <v>42188</v>
       </c>
       <c r="AL61" s="11">
-        <v>20211</v>
+        <v>5677</v>
       </c>
       <c r="AM61" s="11">
-        <v>42188</v>
+        <v>4572</v>
       </c>
       <c r="AN61" s="11">
-        <v>5677</v>
+        <v>1923</v>
       </c>
       <c r="AO61" s="11">
-        <v>4572</v>
+        <v>467</v>
       </c>
       <c r="AP61" s="11">
-        <v>1923</v>
+        <v>1645</v>
       </c>
       <c r="AQ61" s="11">
-        <v>467</v>
+        <v>2503</v>
       </c>
       <c r="AR61" s="11">
-        <v>1645</v>
+        <v>2275</v>
       </c>
       <c r="AS61" s="11">
-        <v>2503</v>
+        <v>1812</v>
       </c>
       <c r="AT61" s="11">
-        <v>2275</v>
+        <v>17443</v>
       </c>
       <c r="AU61" s="11">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="11">
-        <v>17443</v>
+        <v>3636</v>
       </c>
       <c r="AW61" s="11">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="AX61" s="11">
-        <v>3636</v>
+        <v>7658</v>
       </c>
       <c r="AY61" s="11">
-        <v>7361</v>
+        <v>3317</v>
       </c>
       <c r="AZ61" s="11">
-        <v>7658</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="11">
-        <v>3317</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>0</v>
+        <v>4821</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
@@ -8060,104 +8060,104 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>21231</v>
+      </c>
+      <c r="X62" s="13">
+        <v>41499</v>
       </c>
       <c r="Y62" s="13">
-        <v>21231</v>
+        <v>38078</v>
       </c>
       <c r="Z62" s="13">
-        <v>41499</v>
+        <v>26933</v>
       </c>
       <c r="AA62" s="13">
-        <v>38078</v>
+        <v>32868</v>
       </c>
       <c r="AB62" s="13">
-        <v>26933</v>
+        <v>56274</v>
       </c>
       <c r="AC62" s="13">
-        <v>32868</v>
+        <v>32842</v>
       </c>
       <c r="AD62" s="13">
-        <v>56274</v>
+        <v>48221</v>
       </c>
       <c r="AE62" s="13">
-        <v>32842</v>
+        <v>48161</v>
       </c>
       <c r="AF62" s="13">
-        <v>48221</v>
+        <v>28093</v>
       </c>
       <c r="AG62" s="13">
-        <v>48161</v>
+        <v>62572</v>
       </c>
       <c r="AH62" s="13">
-        <v>28093</v>
+        <v>55810</v>
       </c>
       <c r="AI62" s="13">
-        <v>62572</v>
+        <v>55810</v>
       </c>
       <c r="AJ62" s="13">
-        <v>55810</v>
+        <v>42539</v>
       </c>
       <c r="AK62" s="13">
-        <v>55810</v>
+        <v>38094</v>
       </c>
       <c r="AL62" s="13">
-        <v>42539</v>
+        <v>36617</v>
       </c>
       <c r="AM62" s="13">
-        <v>38094</v>
+        <v>47117</v>
       </c>
       <c r="AN62" s="13">
-        <v>36617</v>
+        <v>47097</v>
       </c>
       <c r="AO62" s="13">
-        <v>47117</v>
+        <v>22996</v>
       </c>
       <c r="AP62" s="13">
-        <v>47097</v>
+        <v>99798</v>
       </c>
       <c r="AQ62" s="13">
-        <v>22996</v>
+        <v>76587</v>
       </c>
       <c r="AR62" s="13">
-        <v>99798</v>
+        <v>32617</v>
       </c>
       <c r="AS62" s="13">
-        <v>76587</v>
+        <v>49479</v>
       </c>
       <c r="AT62" s="13">
-        <v>32617</v>
+        <v>44695</v>
       </c>
       <c r="AU62" s="13">
-        <v>49479</v>
+        <v>59455</v>
       </c>
       <c r="AV62" s="13">
-        <v>44695</v>
+        <v>85461</v>
       </c>
       <c r="AW62" s="13">
-        <v>59455</v>
+        <v>59728</v>
       </c>
       <c r="AX62" s="13">
-        <v>85461</v>
+        <v>6043</v>
       </c>
       <c r="AY62" s="13">
-        <v>59728</v>
+        <v>100733</v>
       </c>
       <c r="AZ62" s="13">
-        <v>6043</v>
+        <v>150504</v>
       </c>
       <c r="BA62" s="13">
-        <v>100733</v>
+        <v>150643</v>
       </c>
       <c r="BB62" s="13">
-        <v>150504</v>
+        <v>65291</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>64</v>
       </c>
@@ -8288,35 +8288,35 @@
       <c r="AS63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU63" s="11" t="s">
-        <v>58</v>
+      <c r="AT63" s="11">
+        <v>706765</v>
+      </c>
+      <c r="AU63" s="11">
+        <v>757101</v>
       </c>
       <c r="AV63" s="11">
-        <v>706765</v>
+        <v>773206</v>
       </c>
       <c r="AW63" s="11">
-        <v>750121</v>
+        <v>1107166</v>
       </c>
       <c r="AX63" s="11">
-        <v>678342</v>
+        <v>1157245</v>
       </c>
       <c r="AY63" s="11">
-        <v>1107166</v>
+        <v>1075729</v>
       </c>
       <c r="AZ63" s="11">
-        <v>1157245</v>
+        <v>1036983</v>
       </c>
       <c r="BA63" s="11">
-        <v>1075729</v>
+        <v>1175744</v>
       </c>
       <c r="BB63" s="11">
-        <v>1036983</v>
+        <v>1275162</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>75</v>
       </c>
@@ -8377,103 +8377,103 @@
         <v>0</v>
       </c>
       <c r="W64" s="15">
-        <v>0</v>
+        <v>431645</v>
       </c>
       <c r="X64" s="15">
-        <v>0</v>
+        <v>488732</v>
       </c>
       <c r="Y64" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="Z64" s="15">
-        <v>488732</v>
+        <v>479868</v>
       </c>
       <c r="AA64" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AB64" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AC64" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AD64" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AE64" s="15">
-        <v>573872</v>
+        <v>442739</v>
       </c>
       <c r="AF64" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AG64" s="15">
-        <v>442739</v>
+        <v>685238</v>
       </c>
       <c r="AH64" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AI64" s="15">
-        <v>685238</v>
+        <v>600110</v>
       </c>
       <c r="AJ64" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AK64" s="15">
-        <v>600110</v>
+        <v>702002</v>
       </c>
       <c r="AL64" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AM64" s="15">
-        <v>702002</v>
+        <v>700500</v>
       </c>
       <c r="AN64" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AO64" s="15">
-        <v>700500</v>
+        <v>503082</v>
       </c>
       <c r="AP64" s="15">
-        <v>500601</v>
+        <v>514051</v>
       </c>
       <c r="AQ64" s="15">
-        <v>503082</v>
+        <v>586866</v>
       </c>
       <c r="AR64" s="15">
-        <v>514051</v>
+        <v>508519</v>
       </c>
       <c r="AS64" s="15">
-        <v>586866</v>
+        <v>555174</v>
       </c>
       <c r="AT64" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AU64" s="15">
-        <v>555174</v>
+        <v>849153</v>
       </c>
       <c r="AV64" s="15">
-        <v>806565</v>
+        <v>1003662</v>
       </c>
       <c r="AW64" s="15">
-        <v>842173</v>
+        <v>1228305</v>
       </c>
       <c r="AX64" s="15">
-        <v>908798</v>
+        <v>1247810</v>
       </c>
       <c r="AY64" s="15">
-        <v>1228305</v>
+        <v>1223567</v>
       </c>
       <c r="AZ64" s="15">
-        <v>1247810</v>
+        <v>1258435</v>
       </c>
       <c r="BA64" s="15">
-        <v>1223567</v>
+        <v>1370256</v>
       </c>
       <c r="BB64" s="15">
-        <v>1258435</v>
+        <v>1383248</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8616,14 +8616,14 @@
       <c r="AD66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF66" s="11" t="s">
-        <v>58</v>
+      <c r="AE66" s="11">
+        <v>3817</v>
+      </c>
+      <c r="AF66" s="11">
+        <v>0</v>
       </c>
       <c r="AG66" s="11">
-        <v>3817</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="11">
         <v>0</v>
@@ -8655,11 +8655,11 @@
       <c r="AQ66" s="11">
         <v>0</v>
       </c>
-      <c r="AR66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="11">
-        <v>0</v>
+      <c r="AR66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT66" s="11" t="s">
         <v>58</v>
@@ -8689,7 +8689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8754,14 +8754,14 @@
       <c r="W67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
+      <c r="X67" s="13">
+        <v>49022</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>0</v>
       </c>
       <c r="Z67" s="13">
-        <v>49022</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="13">
         <v>0</v>
@@ -8776,56 +8776,56 @@
         <v>0</v>
       </c>
       <c r="AE67" s="13">
-        <v>0</v>
+        <v>18010</v>
       </c>
       <c r="AF67" s="13">
         <v>0</v>
       </c>
       <c r="AG67" s="13">
-        <v>18010</v>
+        <v>14543</v>
       </c>
       <c r="AH67" s="13">
         <v>0</v>
       </c>
       <c r="AI67" s="13">
-        <v>14543</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="13">
         <v>0</v>
       </c>
       <c r="AK67" s="13">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AL67" s="13">
         <v>0</v>
       </c>
       <c r="AM67" s="13">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="13">
         <v>0</v>
       </c>
       <c r="AO67" s="13">
-        <v>0</v>
+        <v>18303</v>
       </c>
       <c r="AP67" s="13">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="AQ67" s="13">
-        <v>18303</v>
-      </c>
-      <c r="AR67" s="13">
-        <v>56950</v>
+        <v>21335</v>
+      </c>
+      <c r="AR67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS67" s="13">
-        <v>21335</v>
-      </c>
-      <c r="AT67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="13">
         <v>1250</v>
       </c>
+      <c r="AT67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU67" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV67" s="13" t="s">
         <v>58</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -8937,11 +8937,11 @@
       <c r="AE68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG68" s="11" t="s">
-        <v>58</v>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <v>0</v>
       </c>
       <c r="AH68" s="11">
         <v>0</v>
@@ -8973,11 +8973,11 @@
       <c r="AQ68" s="11">
         <v>0</v>
       </c>
-      <c r="AR68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="11">
-        <v>0</v>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT68" s="11" t="s">
         <v>58</v>
@@ -9007,7 +9007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>62</v>
       </c>
@@ -9072,14 +9072,14 @@
       <c r="W69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y69" s="13" t="s">
-        <v>58</v>
+      <c r="X69" s="13">
+        <v>2693</v>
+      </c>
+      <c r="Y69" s="13">
+        <v>0</v>
       </c>
       <c r="Z69" s="13">
-        <v>2693</v>
+        <v>0</v>
       </c>
       <c r="AA69" s="13">
         <v>0</v>
@@ -9100,13 +9100,13 @@
         <v>0</v>
       </c>
       <c r="AG69" s="13">
-        <v>0</v>
+        <v>6085</v>
       </c>
       <c r="AH69" s="13">
         <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>6085</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="13">
         <v>0</v>
@@ -9124,16 +9124,16 @@
         <v>0</v>
       </c>
       <c r="AO69" s="13">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="AP69" s="13">
         <v>0</v>
       </c>
       <c r="AQ69" s="13">
-        <v>2508</v>
-      </c>
-      <c r="AR69" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS69" s="13">
         <v>0</v>
@@ -9148,25 +9148,25 @@
         <v>0</v>
       </c>
       <c r="AW69" s="13">
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="AX69" s="13">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="AY69" s="13">
-        <v>9249</v>
+        <v>15000</v>
       </c>
       <c r="AZ69" s="13">
-        <v>12300</v>
+        <v>2796</v>
       </c>
       <c r="BA69" s="13">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="13">
-        <v>2796</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>64</v>
       </c>
@@ -9297,35 +9297,35 @@
       <c r="AS70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU70" s="11" t="s">
-        <v>58</v>
+      <c r="AT70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="11">
+        <v>0</v>
       </c>
       <c r="AV70" s="11">
-        <v>0</v>
+        <v>48518</v>
       </c>
       <c r="AW70" s="11">
-        <v>0</v>
+        <v>7580</v>
       </c>
       <c r="AX70" s="11">
-        <v>48518</v>
+        <v>855</v>
       </c>
       <c r="AY70" s="11">
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="11">
-        <v>855</v>
+        <v>25898</v>
       </c>
       <c r="BA70" s="11">
         <v>0</v>
       </c>
       <c r="BB70" s="11">
-        <v>25898</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>77</v>
       </c>
@@ -9389,13 +9389,13 @@
         <v>0</v>
       </c>
       <c r="X71" s="15">
-        <v>0</v>
+        <v>51715</v>
       </c>
       <c r="Y71" s="15">
         <v>0</v>
       </c>
       <c r="Z71" s="15">
-        <v>51715</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="15">
         <v>0</v>
@@ -9410,79 +9410,79 @@
         <v>0</v>
       </c>
       <c r="AE71" s="15">
-        <v>0</v>
+        <v>21827</v>
       </c>
       <c r="AF71" s="15">
         <v>0</v>
       </c>
       <c r="AG71" s="15">
-        <v>21827</v>
+        <v>20628</v>
       </c>
       <c r="AH71" s="15">
         <v>0</v>
       </c>
       <c r="AI71" s="15">
-        <v>20628</v>
+        <v>0</v>
       </c>
       <c r="AJ71" s="15">
         <v>0</v>
       </c>
       <c r="AK71" s="15">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AL71" s="15">
         <v>0</v>
       </c>
       <c r="AM71" s="15">
-        <v>1407</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="15">
         <v>0</v>
       </c>
       <c r="AO71" s="15">
-        <v>0</v>
+        <v>20811</v>
       </c>
       <c r="AP71" s="15">
-        <v>0</v>
+        <v>56950</v>
       </c>
       <c r="AQ71" s="15">
-        <v>20811</v>
+        <v>21335</v>
       </c>
       <c r="AR71" s="15">
-        <v>56950</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="15">
-        <v>21335</v>
+        <v>1250</v>
       </c>
       <c r="AT71" s="15">
         <v>0</v>
       </c>
       <c r="AU71" s="15">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="15">
-        <v>0</v>
+        <v>48518</v>
       </c>
       <c r="AW71" s="15">
-        <v>0</v>
+        <v>16829</v>
       </c>
       <c r="AX71" s="15">
-        <v>48518</v>
+        <v>13155</v>
       </c>
       <c r="AY71" s="15">
-        <v>16829</v>
+        <v>15000</v>
       </c>
       <c r="AZ71" s="15">
-        <v>13155</v>
+        <v>28694</v>
       </c>
       <c r="BA71" s="15">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="15">
-        <v>28694</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>84</v>
       </c>
@@ -9539,7 +9539,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9628,11 +9628,11 @@
       <c r="AE73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG73" s="11" t="s">
-        <v>58</v>
+      <c r="AF73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="11">
+        <v>0</v>
       </c>
       <c r="AH73" s="11">
         <v>0</v>
@@ -9664,11 +9664,11 @@
       <c r="AQ73" s="11">
         <v>0</v>
       </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>0</v>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
@@ -9698,7 +9698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>71</v>
       </c>
@@ -9760,11 +9760,11 @@
       <c r="V74" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="15" t="s">
-        <v>58</v>
+      <c r="W74" s="15">
+        <v>0</v>
+      </c>
+      <c r="X74" s="15">
+        <v>0</v>
       </c>
       <c r="Y74" s="15">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>85</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="BA75" s="19"/>
       <c r="BB75" s="19"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
         <v>79</v>
       </c>
@@ -9976,11 +9976,11 @@
       <c r="V76" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="17" t="s">
-        <v>58</v>
+      <c r="W76" s="17">
+        <v>0</v>
+      </c>
+      <c r="X76" s="17">
+        <v>0</v>
       </c>
       <c r="Y76" s="17">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>86</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>87</v>
       </c>
@@ -10192,11 +10192,11 @@
       <c r="V78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="11" t="s">
-        <v>58</v>
+      <c r="W78" s="11">
+        <v>0</v>
+      </c>
+      <c r="X78" s="11">
+        <v>0</v>
       </c>
       <c r="Y78" s="11">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>72</v>
       </c>
@@ -10350,103 +10350,103 @@
         <v>0</v>
       </c>
       <c r="W79" s="15">
-        <v>0</v>
+        <v>431645</v>
       </c>
       <c r="X79" s="15">
-        <v>0</v>
+        <v>540447</v>
       </c>
       <c r="Y79" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="Z79" s="15">
-        <v>540447</v>
+        <v>479868</v>
       </c>
       <c r="AA79" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AB79" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AC79" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AD79" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AE79" s="15">
-        <v>573872</v>
+        <v>464566</v>
       </c>
       <c r="AF79" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AG79" s="15">
-        <v>464566</v>
+        <v>705866</v>
       </c>
       <c r="AH79" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AI79" s="15">
-        <v>705866</v>
+        <v>600110</v>
       </c>
       <c r="AJ79" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AK79" s="15">
-        <v>600110</v>
+        <v>703409</v>
       </c>
       <c r="AL79" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AM79" s="15">
-        <v>703409</v>
+        <v>700500</v>
       </c>
       <c r="AN79" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AO79" s="15">
-        <v>700500</v>
+        <v>523893</v>
       </c>
       <c r="AP79" s="15">
-        <v>500601</v>
+        <v>571001</v>
       </c>
       <c r="AQ79" s="15">
-        <v>523893</v>
+        <v>608201</v>
       </c>
       <c r="AR79" s="15">
-        <v>571001</v>
+        <v>508519</v>
       </c>
       <c r="AS79" s="15">
-        <v>608201</v>
+        <v>556424</v>
       </c>
       <c r="AT79" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AU79" s="15">
-        <v>556424</v>
+        <v>849153</v>
       </c>
       <c r="AV79" s="15">
-        <v>806565</v>
+        <v>1052180</v>
       </c>
       <c r="AW79" s="15">
-        <v>842173</v>
+        <v>1245134</v>
       </c>
       <c r="AX79" s="15">
-        <v>957316</v>
+        <v>1260965</v>
       </c>
       <c r="AY79" s="15">
-        <v>1245134</v>
+        <v>1238567</v>
       </c>
       <c r="AZ79" s="15">
-        <v>1260965</v>
+        <v>1287129</v>
       </c>
       <c r="BA79" s="15">
-        <v>1238567</v>
+        <v>1370256</v>
       </c>
       <c r="BB79" s="15">
-        <v>1287129</v>
+        <v>1383248</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10501,7 +10501,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10556,7 +10556,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -10611,7 +10611,7 @@
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
     </row>
-    <row r="83" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>88</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -10823,7 +10823,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>89</v>
       </c>
@@ -10880,7 +10880,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>56</v>
       </c>
@@ -10942,104 +10942,104 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
+      <c r="W86" s="11">
+        <v>2990303</v>
+      </c>
+      <c r="X86" s="11">
+        <v>1556475</v>
       </c>
       <c r="Y86" s="11">
-        <v>2990303</v>
+        <v>2033366</v>
       </c>
       <c r="Z86" s="11">
-        <v>1556475</v>
+        <v>3648732</v>
       </c>
       <c r="AA86" s="11">
-        <v>2033366</v>
+        <v>5477523</v>
       </c>
       <c r="AB86" s="11">
-        <v>3648732</v>
+        <v>2396877</v>
       </c>
       <c r="AC86" s="11">
-        <v>5477523</v>
+        <v>756214</v>
       </c>
       <c r="AD86" s="11">
-        <v>2396877</v>
+        <v>2396983</v>
       </c>
       <c r="AE86" s="11">
-        <v>756214</v>
+        <v>2237421</v>
       </c>
       <c r="AF86" s="11">
-        <v>2396983</v>
+        <v>6222389</v>
       </c>
       <c r="AG86" s="11">
-        <v>2237421</v>
+        <v>6558928</v>
       </c>
       <c r="AH86" s="11">
-        <v>6222389</v>
+        <v>6558846</v>
       </c>
       <c r="AI86" s="11">
-        <v>6558928</v>
+        <v>6558846</v>
       </c>
       <c r="AJ86" s="11">
-        <v>6558846</v>
+        <v>6859272</v>
       </c>
       <c r="AK86" s="11">
-        <v>6558846</v>
+        <v>4501119</v>
       </c>
       <c r="AL86" s="11">
-        <v>6859272</v>
+        <v>2753153</v>
       </c>
       <c r="AM86" s="11">
-        <v>4501119</v>
+        <v>5115573</v>
       </c>
       <c r="AN86" s="11">
-        <v>2753153</v>
+        <v>3255445</v>
       </c>
       <c r="AO86" s="11">
-        <v>5115573</v>
+        <v>4373563</v>
       </c>
       <c r="AP86" s="11">
-        <v>3255445</v>
+        <v>3870616</v>
       </c>
       <c r="AQ86" s="11">
-        <v>4373563</v>
+        <v>4570590</v>
       </c>
       <c r="AR86" s="11">
-        <v>3870616</v>
+        <v>5582281</v>
       </c>
       <c r="AS86" s="11">
-        <v>4570590</v>
+        <v>3160701</v>
       </c>
       <c r="AT86" s="11">
-        <v>5582281</v>
+        <v>3462536</v>
       </c>
       <c r="AU86" s="11">
-        <v>3160701</v>
+        <v>4828470</v>
       </c>
       <c r="AV86" s="11">
-        <v>3462536</v>
+        <v>5866979</v>
       </c>
       <c r="AW86" s="11">
-        <v>4828470</v>
+        <v>8373354</v>
       </c>
       <c r="AX86" s="11">
-        <v>5866979</v>
+        <v>7631454</v>
       </c>
       <c r="AY86" s="11">
-        <v>8373354</v>
+        <v>5874430</v>
       </c>
       <c r="AZ86" s="11">
-        <v>7631454</v>
+        <v>6314347</v>
       </c>
       <c r="BA86" s="11">
-        <v>5874430</v>
+        <v>5537617</v>
       </c>
       <c r="BB86" s="11">
-        <v>6314347</v>
+        <v>8981552</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>59</v>
       </c>
@@ -11101,81 +11101,81 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>1361376</v>
+      </c>
+      <c r="X87" s="13">
+        <v>1547895</v>
       </c>
       <c r="Y87" s="13">
-        <v>1361376</v>
+        <v>1539219</v>
       </c>
       <c r="Z87" s="13">
-        <v>1547895</v>
+        <v>1788717</v>
       </c>
       <c r="AA87" s="13">
-        <v>1539219</v>
+        <v>1717725</v>
       </c>
       <c r="AB87" s="13">
-        <v>1788717</v>
+        <v>1840494</v>
       </c>
       <c r="AC87" s="13">
-        <v>1717725</v>
+        <v>1656507</v>
       </c>
       <c r="AD87" s="13">
-        <v>1840494</v>
+        <v>1840496</v>
       </c>
       <c r="AE87" s="13">
-        <v>1656507</v>
+        <v>1151684</v>
       </c>
       <c r="AF87" s="13">
-        <v>1840496</v>
+        <v>1286379</v>
       </c>
       <c r="AG87" s="13">
-        <v>1151684</v>
+        <v>1456509</v>
       </c>
       <c r="AH87" s="13">
-        <v>1286379</v>
+        <v>1472076</v>
       </c>
       <c r="AI87" s="13">
-        <v>1456509</v>
+        <v>1562074</v>
       </c>
       <c r="AJ87" s="13">
-        <v>1472076</v>
+        <v>1631876</v>
       </c>
       <c r="AK87" s="13">
-        <v>1562074</v>
+        <v>1457110</v>
       </c>
       <c r="AL87" s="13">
-        <v>1631876</v>
+        <v>2242518</v>
       </c>
       <c r="AM87" s="13">
-        <v>1457110</v>
+        <v>2192480</v>
       </c>
       <c r="AN87" s="13">
-        <v>2242518</v>
+        <v>1613855</v>
       </c>
       <c r="AO87" s="13">
-        <v>2192480</v>
+        <v>1547047</v>
       </c>
       <c r="AP87" s="13">
-        <v>1613855</v>
+        <v>1348857</v>
       </c>
       <c r="AQ87" s="13">
-        <v>1547047</v>
+        <v>1610859</v>
       </c>
       <c r="AR87" s="13">
-        <v>1348857</v>
+        <v>1759555</v>
       </c>
       <c r="AS87" s="13">
-        <v>1610859</v>
-      </c>
-      <c r="AT87" s="13">
-        <v>1759555</v>
-      </c>
-      <c r="AU87" s="13">
         <v>1817757</v>
       </c>
+      <c r="AT87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV87" s="13" t="s">
         <v>58</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>60</v>
       </c>
@@ -11260,104 +11260,104 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
+      <c r="W88" s="11">
+        <v>188607477</v>
+      </c>
+      <c r="X88" s="11">
+        <v>180739130</v>
       </c>
       <c r="Y88" s="11">
-        <v>188607477</v>
+        <v>184267606</v>
       </c>
       <c r="Z88" s="11">
-        <v>180739130</v>
+        <v>136805970</v>
       </c>
       <c r="AA88" s="11">
-        <v>184267606</v>
+        <v>168771084</v>
       </c>
       <c r="AB88" s="11">
-        <v>136805970</v>
+        <v>180549020</v>
       </c>
       <c r="AC88" s="11">
-        <v>168771084</v>
+        <v>58857143</v>
       </c>
       <c r="AD88" s="11">
-        <v>180549020</v>
+        <v>180946809</v>
       </c>
       <c r="AE88" s="11">
-        <v>58857143</v>
+        <v>51125000</v>
       </c>
       <c r="AF88" s="11">
-        <v>180946809</v>
+        <v>189542857</v>
       </c>
       <c r="AG88" s="11">
-        <v>51125000</v>
+        <v>201131313</v>
       </c>
       <c r="AH88" s="11">
-        <v>189542857</v>
+        <v>203311475</v>
       </c>
       <c r="AI88" s="11">
-        <v>201131313</v>
+        <v>200032258</v>
       </c>
       <c r="AJ88" s="11">
-        <v>203311475</v>
+        <v>200108911</v>
       </c>
       <c r="AK88" s="11">
-        <v>200032258</v>
+        <v>281253333</v>
       </c>
       <c r="AL88" s="11">
-        <v>200108911</v>
+        <v>35704403</v>
       </c>
       <c r="AM88" s="11">
-        <v>281253333</v>
+        <v>36870968</v>
       </c>
       <c r="AN88" s="11">
-        <v>35704403</v>
+        <v>18852941</v>
       </c>
       <c r="AO88" s="11">
-        <v>36870968</v>
+        <v>18680000</v>
       </c>
       <c r="AP88" s="11">
-        <v>18852941</v>
+        <v>21089744</v>
       </c>
       <c r="AQ88" s="11">
-        <v>18680000</v>
+        <v>32506494</v>
       </c>
       <c r="AR88" s="11">
-        <v>21089744</v>
+        <v>35000000</v>
       </c>
       <c r="AS88" s="11">
-        <v>32506494</v>
+        <v>34188679</v>
       </c>
       <c r="AT88" s="11">
-        <v>35000000</v>
-      </c>
-      <c r="AU88" s="11">
-        <v>34188679</v>
+        <v>73599156</v>
+      </c>
+      <c r="AU88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV88" s="11">
-        <v>73599156</v>
+        <v>1538722</v>
       </c>
       <c r="AW88" s="11">
-        <v>0</v>
+        <v>204472222</v>
       </c>
       <c r="AX88" s="11">
-        <v>58856428</v>
+        <v>170177778</v>
       </c>
       <c r="AY88" s="11">
-        <v>204472222</v>
-      </c>
-      <c r="AZ88" s="11">
-        <v>170177778</v>
-      </c>
-      <c r="BA88" s="11">
         <v>255153846</v>
       </c>
-      <c r="BB88" s="11" t="s">
-        <v>58</v>
+      <c r="AZ88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB88" s="11">
+        <v>47732673</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>62</v>
       </c>
@@ -11419,104 +11419,104 @@
       <c r="V89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X89" s="13" t="s">
-        <v>58</v>
+      <c r="W89" s="13">
+        <v>27898817</v>
+      </c>
+      <c r="X89" s="13">
+        <v>39673996</v>
       </c>
       <c r="Y89" s="13">
-        <v>27898817</v>
+        <v>36161443</v>
       </c>
       <c r="Z89" s="13">
-        <v>39673996</v>
+        <v>39375731</v>
       </c>
       <c r="AA89" s="13">
-        <v>36161443</v>
+        <v>44296496</v>
       </c>
       <c r="AB89" s="13">
-        <v>39375731</v>
+        <v>57189024</v>
       </c>
       <c r="AC89" s="13">
-        <v>44296496</v>
+        <v>41052500</v>
       </c>
       <c r="AD89" s="13">
-        <v>57189024</v>
+        <v>57201661</v>
       </c>
       <c r="AE89" s="13">
-        <v>41052500</v>
+        <v>102688699</v>
       </c>
       <c r="AF89" s="13">
-        <v>57201661</v>
+        <v>60285408</v>
       </c>
       <c r="AG89" s="13">
-        <v>102688699</v>
+        <v>66283898</v>
       </c>
       <c r="AH89" s="13">
-        <v>60285408</v>
+        <v>59498934</v>
       </c>
       <c r="AI89" s="13">
-        <v>66283898</v>
+        <v>59498934</v>
       </c>
       <c r="AJ89" s="13">
-        <v>59498934</v>
+        <v>62465492</v>
       </c>
       <c r="AK89" s="13">
-        <v>59498934</v>
+        <v>56435556</v>
       </c>
       <c r="AL89" s="13">
-        <v>62465492</v>
+        <v>41895881</v>
       </c>
       <c r="AM89" s="13">
-        <v>56435556</v>
+        <v>68285507</v>
       </c>
       <c r="AN89" s="13">
-        <v>41895881</v>
+        <v>59919847</v>
       </c>
       <c r="AO89" s="13">
-        <v>68285507</v>
+        <v>45536634</v>
       </c>
       <c r="AP89" s="13">
-        <v>59919847</v>
+        <v>95409178</v>
       </c>
       <c r="AQ89" s="13">
-        <v>45536634</v>
+        <v>75903865</v>
       </c>
       <c r="AR89" s="13">
-        <v>95409178</v>
+        <v>65103792</v>
       </c>
       <c r="AS89" s="13">
-        <v>75903865</v>
+        <v>57600698</v>
       </c>
       <c r="AT89" s="13">
-        <v>65103792</v>
+        <v>57596649</v>
       </c>
       <c r="AU89" s="13">
-        <v>57600698</v>
+        <v>122587629</v>
       </c>
       <c r="AV89" s="13">
-        <v>57596649</v>
+        <v>107769231</v>
       </c>
       <c r="AW89" s="13">
-        <v>122587629</v>
+        <v>205958621</v>
       </c>
       <c r="AX89" s="13">
-        <v>107769231</v>
+        <v>53008772</v>
       </c>
       <c r="AY89" s="13">
-        <v>210529124</v>
+        <v>74617037</v>
       </c>
       <c r="AZ89" s="13">
-        <v>53008772</v>
+        <v>110421130</v>
       </c>
       <c r="BA89" s="13">
-        <v>74617037</v>
+        <v>114123485</v>
       </c>
       <c r="BB89" s="13">
-        <v>110421130</v>
+        <v>86135884</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>64</v>
       </c>
@@ -11647,35 +11647,35 @@
       <c r="AS90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU90" s="11" t="s">
-        <v>58</v>
+      <c r="AT90" s="11">
+        <v>1900964</v>
+      </c>
+      <c r="AU90" s="11">
+        <v>2792896</v>
       </c>
       <c r="AV90" s="11">
-        <v>1900964</v>
+        <v>2703054</v>
       </c>
       <c r="AW90" s="11">
-        <v>2786740</v>
+        <v>6269698</v>
       </c>
       <c r="AX90" s="11">
-        <v>2632527</v>
+        <v>2716563</v>
       </c>
       <c r="AY90" s="11">
-        <v>6275403</v>
+        <v>2570274</v>
       </c>
       <c r="AZ90" s="11">
-        <v>2716563</v>
+        <v>3262594</v>
       </c>
       <c r="BA90" s="11">
-        <v>2570274</v>
+        <v>4165627</v>
       </c>
       <c r="BB90" s="11">
-        <v>3262594</v>
+        <v>3881819</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
@@ -11818,14 +11818,14 @@
       <c r="AD92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE92" s="11" t="s">
-        <v>58</v>
+      <c r="AE92" s="11">
+        <v>3180833</v>
       </c>
       <c r="AF92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG92" s="11">
-        <v>3180833</v>
+      <c r="AG92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH92" s="11" t="s">
         <v>58</v>
@@ -11891,7 +11891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>59</v>
       </c>
@@ -11956,14 +11956,14 @@
       <c r="W93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X93" s="13" t="s">
-        <v>58</v>
+      <c r="X93" s="13">
+        <v>3100108</v>
       </c>
       <c r="Y93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="13">
-        <v>3100108</v>
+      <c r="Z93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA93" s="13" t="s">
         <v>58</v>
@@ -11977,56 +11977,56 @@
       <c r="AD93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE93" s="13" t="s">
-        <v>58</v>
+      <c r="AE93" s="13">
+        <v>5663522</v>
       </c>
       <c r="AF93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AG93" s="13">
-        <v>5663522</v>
+        <v>2423833</v>
       </c>
       <c r="AH93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI93" s="13">
-        <v>2423833</v>
+      <c r="AI93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK93" s="13" t="s">
-        <v>58</v>
+      <c r="AK93" s="13">
+        <v>1407000</v>
       </c>
       <c r="AL93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM93" s="13">
-        <v>1407000</v>
+      <c r="AM93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP93" s="13" t="s">
-        <v>58</v>
+      <c r="AO93" s="13">
+        <v>1830300</v>
+      </c>
+      <c r="AP93" s="13">
+        <v>2278000</v>
       </c>
       <c r="AQ93" s="13">
-        <v>1830300</v>
-      </c>
-      <c r="AR93" s="13">
-        <v>2278000</v>
+        <v>3555833</v>
+      </c>
+      <c r="AR93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS93" s="13">
-        <v>3555833</v>
+        <v>1250000</v>
       </c>
       <c r="AT93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU93" s="13">
-        <v>1250000</v>
+      <c r="AU93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV93" s="13" t="s">
         <v>58</v>
@@ -12050,7 +12050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>62</v>
       </c>
@@ -12115,14 +12115,14 @@
       <c r="W94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X94" s="11" t="s">
-        <v>58</v>
+      <c r="X94" s="11">
+        <v>30954023</v>
       </c>
       <c r="Y94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="11">
-        <v>30954023</v>
+      <c r="Z94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AA94" s="11" t="s">
         <v>58</v>
@@ -12142,14 +12142,14 @@
       <c r="AF94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG94" s="11" t="s">
-        <v>58</v>
+      <c r="AG94" s="11">
+        <v>28976190</v>
       </c>
       <c r="AH94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI94" s="11">
-        <v>28976190</v>
+      <c r="AI94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ94" s="11" t="s">
         <v>58</v>
@@ -12166,14 +12166,14 @@
       <c r="AN94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO94" s="11" t="s">
-        <v>58</v>
+      <c r="AO94" s="11">
+        <v>50160000</v>
       </c>
       <c r="AP94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ94" s="11">
-        <v>50160000</v>
+      <c r="AQ94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR94" s="11" t="s">
         <v>58</v>
@@ -12190,26 +12190,26 @@
       <c r="AV94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX94" s="11" t="s">
-        <v>58</v>
+      <c r="AW94" s="11">
+        <v>51383333</v>
+      </c>
+      <c r="AX94" s="11">
+        <v>41000000</v>
       </c>
       <c r="AY94" s="11">
-        <v>51383333</v>
+        <v>50000000</v>
       </c>
       <c r="AZ94" s="11">
-        <v>41000000</v>
-      </c>
-      <c r="BA94" s="11">
-        <v>50000000</v>
-      </c>
-      <c r="BB94" s="11">
         <v>111840000</v>
       </c>
+      <c r="BA94" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB94" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>64</v>
       </c>
@@ -12346,29 +12346,29 @@
       <c r="AU95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV95" s="13" t="s">
-        <v>58</v>
+      <c r="AV95" s="13">
+        <v>3234749</v>
       </c>
       <c r="AW95" s="13">
-        <v>0</v>
+        <v>689091</v>
       </c>
       <c r="AX95" s="13">
-        <v>3234749</v>
-      </c>
-      <c r="AY95" s="13">
-        <v>689091</v>
+        <v>2442857</v>
+      </c>
+      <c r="AY95" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ95" s="13">
-        <v>2442857</v>
+        <v>1726533</v>
       </c>
       <c r="BA95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB95" s="13">
-        <v>1726533</v>
+      <c r="BB95" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>94</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>69</v>
       </c>
@@ -12514,11 +12514,11 @@
       <c r="AE97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG97" s="11" t="s">
-        <v>58</v>
+      <c r="AF97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>0</v>
       </c>
       <c r="AH97" s="11">
         <v>0</v>
@@ -12550,11 +12550,11 @@
       <c r="AQ97" s="11">
         <v>0</v>
       </c>
-      <c r="AR97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="11">
-        <v>0</v>
+      <c r="AR97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT97" s="11" t="s">
         <v>58</v>
